--- a/data/limpios/formularios_greentic_estudiantes.xlsx
+++ b/data/limpios/formularios_greentic_estudiantes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11641" uniqueCount="2113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11811" uniqueCount="2123">
   <si>
     <t>Sector</t>
   </si>
@@ -5938,112 +5938,142 @@
     <t>2. ¿Dónde preferirías estudiar después de terminar el bachillerato?</t>
   </si>
   <si>
-    <t>3. ¿Qué percepción de la carrera Ingeniería de sistemas tienes?</t>
-  </si>
-  <si>
-    <t>4. ¿Qué percepción de la carrera Otras ingenierías (industrial, civil, mecánica ...) tienes?</t>
-  </si>
-  <si>
-    <t>5. ¿Qué percepción de la carrera Matemáticas tienes?</t>
-  </si>
-  <si>
-    <t>6. ¿Qué percepción de la carrera Ciencias (Física, Química o Biología) tienes?</t>
-  </si>
-  <si>
-    <t>7. ¿Qué percepción de la carrera Derecho tienes?</t>
-  </si>
-  <si>
-    <t>8. ¿Qué percepción de la carrera Enfermería tienes?</t>
-  </si>
-  <si>
-    <t>9. ¿Qué percepción de la carrera Administración de empresas tienes?</t>
-  </si>
-  <si>
-    <t>10. ¿Qué percepción de la carrera Economía tienes?</t>
-  </si>
-  <si>
-    <t>11. ¿Qué percepción de la carrera Psicología tienes?</t>
-  </si>
-  <si>
-    <t>12. ¿Qué percepción de la carrera Licenciatura en pedagogía infantil tienes?</t>
-  </si>
-  <si>
-    <t>13. ¿Qué percepción de la carrera Medicina tienes?</t>
-  </si>
-  <si>
-    <t>14. Si tu profesión preferida no estaba en la lista anterior, indícanos: ¿Cuál es?</t>
-  </si>
-  <si>
-    <t>15. De los siguientes conceptos en computación, ¿Cuáles conoces y puedes explicar? (marca todas las que apliquen)</t>
-  </si>
-  <si>
-    <t>16. Soy capaz de explicar lo que es el pensamiento computacional</t>
-  </si>
-  <si>
-    <t>17. Puedo enumerar las sub-habilidades que componen el pensamiento computacional</t>
-  </si>
-  <si>
-    <t>18. Soy capaz de dar ejemplos para explicar las sub-habilidades del pensamiento computacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. Puedo explicar la forma en que las sub-habilidades del pensamiento computacional se correlacionan con la programación </t>
-  </si>
-  <si>
-    <t>20. Puedo analizar un ejercicio y determinar qué sub-habilidades de pensamiento computacional busca desarrollar</t>
-  </si>
-  <si>
-    <t>21. Puedo resolver problemas a través de programación</t>
-  </si>
-  <si>
-    <t>22. Puedo implementar algoritmos</t>
-  </si>
-  <si>
-    <t>23. Puedo crear un programa de computador</t>
-  </si>
-  <si>
-    <t>24. Puedo automatizar tareas a través de la programación</t>
-  </si>
-  <si>
-    <t>25. Puedo utilizar la computación para resolver problemas simples</t>
-  </si>
-  <si>
-    <t>26. Ayuda al robot verde a salir del laberinto utilizando uno de los conjuntos de instrucciones que hay abajo. Ten en cuenta que el número de veces que se repite (3 ó 4 veces) ocurrirá luego de ejecutar una vez el conjunto de instrucciones. Es decir, si por ejemplo dice que se repite 4 veces, en total se ejecutará 5 veces. (Pregunta Global)</t>
-  </si>
-  <si>
-    <t>27. Óscar lleva 2 loncheras a la escuela todos los días: una para la merienda y la otra para el almuerzo. Óscar se despertó tarde y solo tiene 30 minutos para preparar ambas loncheras. A continuación, encontrarás todos las comidas disponibles para las loncheras y el tiempo de preparación en minutos que necesita cada una. Teniendo en cuenta la siguiente información responde ¿Cuál de las siguientes afirmaciones es falsa?:</t>
-  </si>
-  <si>
-    <t>28. En la hamburguesería "Pepe" utilizan seis tipos de ingredientes (A, B, C, D, E, y F) para hacer las hamburguesas. La siguiente tabla muestra algunos ejemplos de sus hamburguesas e ingredientes. Los ingredientes no están ubicados en ningún orden en particular.</t>
-  </si>
-  <si>
-    <t>29. Hay 10 estudiantes trabajando en el periódico de la escuela. Todos los viernes escriben o editan sus propios artículos. Los cuadros rojos en la siguiente tabla, muestran los horarios en que los estudiantes necesitan una computadora. Las computadoras son todas iguales. Durante una hora, un solo estudiante a la vez puede trabajar en una computadora. ¿Cuál es el número mínimo de computadores que se necesitan para que los estudiantes trabajen según el plan?</t>
-  </si>
-  <si>
-    <t>30. ¿Qué botella debe cambiarse de color para que el resultado final sea una botella de color blanco? Tenga en cuenta lo que hace cada máquina recicladora que se usa en este sistema.</t>
-  </si>
-  <si>
-    <t>31. Un robot que sale desde la casita marrón, debe tomar una fotografía de cada tortuga, pero las instrucciones con las que se programó (en la barra de color rojo), no están funcionando correctamente. ¿Cuál de las siguientes opciones sí le permite completar la misión?</t>
-  </si>
-  <si>
-    <t>32. La líder de la tribu Wayuú utiliza señales de humo para enviar mensajes desde la cima de una montaña a los demás integrantes de la tribu. Ella utiliza nubes de humo pequeñas y grandes, y el siguiente código, para enviar sus mensajes:</t>
-  </si>
-  <si>
-    <t>33. ¿Cuánto da la suma?</t>
-  </si>
-  <si>
-    <t>34. Un robot (ubicado donde está la señal de color rojo) está ayudando con la siembra de café. Estos deben plantarse en terrenos que tengan un alto nivel de humedad y que sean montañosos. Los terrenos con alto nivel de humedad son los que están demarcados en el cuadro azul. Los terrenos montañosos están demarcados en el cuadro rojo. La laguna está demarcada en el cuadro de color amarillo. ¿Cuál de los siguientes códigos permite que el robot complete su misión?</t>
-  </si>
-  <si>
-    <t>35. Un pirata escondió todos sus tesoros en una isla con 7 zonas claramente demarcadas, como se muestra en el mapa. Sin embargo, para confundir a quienes quieran robarle sus tesoros decidió destruir este mapa y crear uno codificado en el que cada círculo representa una zona y dos círculos conectados por una línea corresponden a zonas contiguas. Para hacerle la tarea aún más difícil a los ladrones, el pirata hizo 3 mapas codificados adicionales. ¿Cuál de los mapas siguientes es el que representa correctamente al mapa original?</t>
-  </si>
-  <si>
-    <t>36. ¿Cuánto da la suma?.1</t>
-  </si>
-  <si>
-    <t>37. Siete iguanas están en una red social llamada Iguanistagram. Esta red social sólo les permite ver las fotos de su propia cuenta y las de sus amigas. En este diagrama, si dos iguanas son amigas, están unidas por una línea. Después de las vacaciones, todas publican una foto de sí mismas en todos los perfiles de sus amigas. ¿Cuál será la foto con más vistas?</t>
-  </si>
-  <si>
-    <t>38. Después de una tormenta de nieve, tres esquimales quieren despejar los caminos ya que todo quedó cubierto por la nieve . Para esto, a un robot se le da la tarea de quitar la nieve y despejar el camino. Al finalizar, el robot debe volver a su posición inicial.</t>
+    <t>3. ¿Qué percepción tienes de la carrera ...?</t>
+  </si>
+  <si>
+    <t>3.1. ¿Qué percepción de la carrera Ingeniería de sistemas tienes?</t>
+  </si>
+  <si>
+    <t>3.2. ¿Qué percepción de la carrera Otras ingenierías (industrial, civil, mecánica ...) tienes?</t>
+  </si>
+  <si>
+    <t>3.3. ¿Qué percepción de la carrera Matemáticas tienes?</t>
+  </si>
+  <si>
+    <t>3.4. ¿Qué percepción de la carrera Ciencias (Física, Química o Biología) tienes?</t>
+  </si>
+  <si>
+    <t>3.5. ¿Qué percepción de la carrera Derecho tienes?</t>
+  </si>
+  <si>
+    <t>3.6. ¿Qué percepción de la carrera Enfermería tienes?</t>
+  </si>
+  <si>
+    <t>3.7. ¿Qué percepción de la carrera Administración de empresas tienes?</t>
+  </si>
+  <si>
+    <t>3.8. ¿Qué percepción de la carrera Economía tienes?</t>
+  </si>
+  <si>
+    <t>3.9. ¿Qué percepción de la carrera Psicología tienes?</t>
+  </si>
+  <si>
+    <t>3.10. ¿Qué percepción de la carrera Licenciatura en pedagogía infantil tienes?</t>
+  </si>
+  <si>
+    <t>3.11. ¿Qué percepción de la carrera Medicina tienes?</t>
+  </si>
+  <si>
+    <t>3.12. Si tu profesión preferida no estaba en la lista anterior, indícanos: ¿Cuál es?</t>
+  </si>
+  <si>
+    <t>4. De los siguientes conceptos en computación, ¿Cuáles conoces y puedes explicar? (marca todas las que apliquen)</t>
+  </si>
+  <si>
+    <t>Lenguaje de programación</t>
+  </si>
+  <si>
+    <t>Ciclo o bucle</t>
+  </si>
+  <si>
+    <t>Condicional</t>
+  </si>
+  <si>
+    <t>Ninguna (37)</t>
+  </si>
+  <si>
+    <t>Programa de computador</t>
+  </si>
+  <si>
+    <t>Algoritmo</t>
+  </si>
+  <si>
+    <t>Entradas y Salidas</t>
+  </si>
+  <si>
+    <t>Validación de un programa</t>
+  </si>
+  <si>
+    <t>5. De los siguientes conceptos en computación ¿Cuáles conoces y puedes explicar?</t>
+  </si>
+  <si>
+    <t>5.1. Soy capaz de explicar lo que es el pensamiento computacional</t>
+  </si>
+  <si>
+    <t>5.2. Puedo enumerar las sub-habilidades que componen el pensamiento computacional</t>
+  </si>
+  <si>
+    <t>5.3. Soy capaz de dar ejemplos para explicar las sub-habilidades del pensamiento computacional</t>
+  </si>
+  <si>
+    <t>5.4. Puedo explicar la forma en que las sub-habilidades del pensamiento computacional se correlacionan con la programación</t>
+  </si>
+  <si>
+    <t>5.5. Puedo analizar un ejercicio y determinar qué sub-habilidades de pensamiento computacional busca desarrollar</t>
+  </si>
+  <si>
+    <t>5.6. Puedo resolver problemas a través de programación</t>
+  </si>
+  <si>
+    <t>5.7. Puedo implementar algoritmos</t>
+  </si>
+  <si>
+    <t>5.8. Puedo crear un programa de computador</t>
+  </si>
+  <si>
+    <t>5.9. Puedo automatizar tareas a través de la programación</t>
+  </si>
+  <si>
+    <t>5.10. Puedo utilizar la computación para resolver problemas simples</t>
+  </si>
+  <si>
+    <t>6. Ayuda al robot verde a salir del laberinto utilizando uno de los conjuntos de ... ejemplo dice que se repite 4 veces, en total se ejecutará 5 veces. (Pregunta Global)</t>
+  </si>
+  <si>
+    <t>7. Óscar lleva 2 loncheras a la escuela todos los días: una para la merienda ... una. Teniendo en cuenta la siguiente información responde ¿Cuál de las siguientes afirmaciones es falsa?:</t>
+  </si>
+  <si>
+    <t>8. En la hamburguesería "Pepe" utilizan seis tipos de ingredientes (A, B, C, D, E, ... de sus hamburguesas e ingredientes. Los ingredientes no están ubicados en ningún orden en particular.</t>
+  </si>
+  <si>
+    <t>9. Hay 10 estudiantes trabajando en el periódico de la escuela. Todos los viernes escriben ... número mínimo de computadores que se necesitan para que los estudiantes trabajen según el plan?</t>
+  </si>
+  <si>
+    <t>10. ¿Qué botella debe cambiarse de color para que el resultado final sea una botella de color blanco? Tenga en cuenta lo que hace cada máquina recicladora que se usa en este sistema.</t>
+  </si>
+  <si>
+    <t>11. Un robot que sale desde la casita marrón, debe tomar una fotografía de cada ... no están funcionando correctamente. ¿Cuál de las siguientes opciones sí le permite completar la misión?</t>
+  </si>
+  <si>
+    <t>12. La líder de la tribu Wayuú utiliza señales de humo para enviar mensajes desde ... utiliza nubes de humo pequeñas y grandes, y el siguiente código, para enviar sus mensajes:</t>
+  </si>
+  <si>
+    <t>13. ¿Cuánto da la suma?</t>
+  </si>
+  <si>
+    <t>14. Un robot (ubicado donde está la señal de color rojo) está ayudando con la ... de color amarillo. ¿Cuál de los siguientes códigos permite que el robot complete su misión?</t>
+  </si>
+  <si>
+    <t>15. Un pirata escondió todos sus tesoros en una isla con 7 zonas claramente demarcadas, ... codificados adicionales. ¿Cuál de los mapas siguientes es el que representa correctamente al mapa original?</t>
+  </si>
+  <si>
+    <t>16. ¿Cuánto da la suma?.1</t>
+  </si>
+  <si>
+    <t>17. Siete iguanas están en una red social llamada Iguanistagram. Esta red social sólo les ... mismas en todos los perfiles de sus amigas. ¿Cuál será la foto con más vistas?</t>
+  </si>
+  <si>
+    <t>18. Después de una tormenta de nieve, tres esquimales quieren despejar los caminos ya que ... nieve y despejar el camino. Al finalizar, el robot debe volver a su posición inicial.</t>
   </si>
   <si>
     <t>15-16 años</t>
@@ -6115,15 +6145,9 @@
     <t>Lenguaje de programación, Ciclo o bucle, Condicional</t>
   </si>
   <si>
-    <t>Programa de computador</t>
-  </si>
-  <si>
     <t>Algoritmo, Lenguaje de programación, Ciclo o bucle, Condicional</t>
   </si>
   <si>
-    <t>Entradas y Salidas</t>
-  </si>
-  <si>
     <t>Algoritmo, Lenguaje de programación</t>
   </si>
   <si>
@@ -6140,6 +6164,12 @@
   </si>
   <si>
     <t>Algoritmo, Validación de un programa, Ciclo o bucle</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -41707,13 +41737,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH17"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:70">
       <c r="A1" s="1" t="s">
         <v>1970</v>
       </c>
@@ -41894,8 +41924,38 @@
       <c r="BH1" s="1" t="s">
         <v>2008</v>
       </c>
+      <c r="BI1" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:70">
       <c r="A2">
         <v>1</v>
       </c>
@@ -41963,121 +42023,151 @@
         <v>1968</v>
       </c>
       <c r="W2" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X2" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Y2" t="s">
-        <v>2018</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AA2" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="AB2" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AC2" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AD2" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="AE2" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AF2" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AG2" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AH2" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AI2" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AJ2" t="s">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="AK2" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="AL2" t="s">
         <v>2041</v>
       </c>
       <c r="AM2" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AN2" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AO2" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AP2" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AQ2" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AR2" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AS2" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AT2" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AU2" t="s">
-        <v>2041</v>
+        <v>41</v>
       </c>
       <c r="AV2" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="AW2" t="s">
-        <v>2048</v>
+        <v>2054</v>
       </c>
       <c r="AX2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>2051</v>
       </c>
-      <c r="AY2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="BG2" t="s">
         <v>2058</v>
       </c>
-      <c r="BA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>2069</v>
-      </c>
       <c r="BH2" t="s">
-        <v>2073</v>
+        <v>2061</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>2083</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:70">
       <c r="A3">
         <v>2</v>
       </c>
@@ -42145,121 +42235,151 @@
         <v>1969</v>
       </c>
       <c r="W3" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X3" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y3" t="s">
-        <v>2019</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="AA3" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AB3" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="AC3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BI3" t="s">
         <v>2022</v>
       </c>
-      <c r="AD3" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>2024</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1911</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>2042</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>2045</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>2048</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>2051</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>2012</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>2058</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>2064</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>2067</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH3" t="s">
+      <c r="BJ3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:70">
       <c r="A4">
         <v>3</v>
       </c>
@@ -42267,7 +42387,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="D4" t="s">
         <v>941</v>
@@ -42327,121 +42447,151 @@
         <v>1967</v>
       </c>
       <c r="W4" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X4" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y4" t="s">
-        <v>2020</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AA4" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AB4" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AC4" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="AD4" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AE4" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="AF4" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AG4" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AH4" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="AI4" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AJ4" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="AK4" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="AL4" t="s">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="AM4" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AN4" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AO4" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AP4" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AQ4" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AR4" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AS4" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AT4" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AU4" t="s">
-        <v>2041</v>
+        <v>41</v>
       </c>
       <c r="AV4" t="s">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="AW4" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="AX4" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="AY4" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="AZ4" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="BA4" t="s">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="BB4" t="s">
-        <v>41</v>
+        <v>2053</v>
       </c>
       <c r="BC4" t="s">
-        <v>41</v>
+        <v>2053</v>
       </c>
       <c r="BD4" t="s">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="BE4" t="s">
-        <v>2012</v>
+        <v>2051</v>
       </c>
       <c r="BF4" t="s">
-        <v>2067</v>
+        <v>2056</v>
       </c>
       <c r="BG4" t="s">
-        <v>2070</v>
+        <v>2059</v>
       </c>
       <c r="BH4" t="s">
-        <v>2074</v>
+        <v>2062</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>2064</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>2080</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>2084</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:70">
       <c r="A5">
         <v>4</v>
       </c>
@@ -42509,121 +42659,151 @@
         <v>1967</v>
       </c>
       <c r="W5" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X5" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y5" t="s">
-        <v>2019</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="AA5" t="s">
-        <v>2021</v>
+        <v>2032</v>
       </c>
       <c r="AB5" t="s">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="AC5" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AD5" t="s">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="AE5" t="s">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="AF5" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AG5" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="AH5" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="AI5" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="AJ5" t="s">
-        <v>41</v>
+        <v>2030</v>
       </c>
       <c r="AK5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="s">
         <v>1911</v>
       </c>
-      <c r="AL5" t="s">
-        <v>2042</v>
-      </c>
       <c r="AM5" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AN5" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="AO5" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AP5" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AQ5" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AR5" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AS5" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AT5" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AU5" t="s">
-        <v>2041</v>
+        <v>41</v>
       </c>
       <c r="AV5" t="s">
-        <v>2047</v>
+        <v>2052</v>
       </c>
       <c r="AW5" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="AX5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AY5" t="s">
         <v>2052</v>
       </c>
-      <c r="AY5" t="s">
-        <v>2054</v>
-      </c>
       <c r="AZ5" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="BA5" t="s">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="BB5" t="s">
-        <v>41</v>
+        <v>2052</v>
       </c>
       <c r="BC5" t="s">
-        <v>41</v>
+        <v>2052</v>
       </c>
       <c r="BD5" t="s">
-        <v>41</v>
+        <v>2053</v>
       </c>
       <c r="BE5" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="BF5" t="s">
-        <v>2067</v>
+        <v>2057</v>
       </c>
       <c r="BG5" t="s">
-        <v>2071</v>
+        <v>2058</v>
       </c>
       <c r="BH5" t="s">
-        <v>2073</v>
+        <v>2062</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>2064</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>2055</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>2081</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>2083</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:70">
       <c r="A6">
         <v>5</v>
       </c>
@@ -42691,121 +42871,151 @@
         <v>1967</v>
       </c>
       <c r="W6" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X6" t="s">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="Y6" t="s">
-        <v>2020</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="AA6" t="s">
-        <v>2018</v>
+        <v>2032</v>
       </c>
       <c r="AB6" t="s">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="AC6" t="s">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="AD6" t="s">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="AE6" t="s">
-        <v>2020</v>
+        <v>2032</v>
       </c>
       <c r="AF6" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AG6" t="s">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="AH6" t="s">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="AI6" t="s">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="AJ6" t="s">
-        <v>41</v>
+        <v>2032</v>
       </c>
       <c r="AK6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s">
         <v>1911</v>
       </c>
-      <c r="AL6" t="s">
-        <v>2042</v>
-      </c>
       <c r="AM6" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AN6" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AO6" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AP6" t="s">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="AQ6" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AR6" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AS6" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AT6" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AU6" t="s">
-        <v>2042</v>
+        <v>41</v>
       </c>
       <c r="AV6" t="s">
-        <v>2045</v>
+        <v>2052</v>
       </c>
       <c r="AW6" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="AX6" t="s">
         <v>2052</v>
       </c>
       <c r="AY6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BF6" t="s">
         <v>2055</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BG6" t="s">
         <v>2058</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BH6" t="s">
         <v>2062</v>
       </c>
-      <c r="BB6" t="s">
-        <v>2064</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>2067</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>2062</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:70">
       <c r="A7">
         <v>6</v>
       </c>
@@ -42873,121 +43083,151 @@
         <v>1969</v>
       </c>
       <c r="W7" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X7" t="s">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="Y7" t="s">
-        <v>2019</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="AA7" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AB7" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="AC7" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AD7" t="s">
-        <v>2022</v>
+        <v>2031</v>
       </c>
       <c r="AE7" t="s">
-        <v>2018</v>
+        <v>2032</v>
       </c>
       <c r="AF7" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AG7" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AH7" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="AI7" t="s">
-        <v>2022</v>
+        <v>2031</v>
       </c>
       <c r="AJ7" t="s">
-        <v>41</v>
+        <v>2032</v>
       </c>
       <c r="AK7" t="s">
-        <v>2033</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="AM7" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AN7" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AO7" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AP7" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="AQ7" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="AR7" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AS7" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AT7" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AU7" t="s">
-        <v>2044</v>
+        <v>41</v>
       </c>
       <c r="AV7" t="s">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="AW7" t="s">
-        <v>2048</v>
+        <v>2053</v>
       </c>
       <c r="AX7" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AY7" t="s">
         <v>2051</v>
       </c>
-      <c r="AY7" t="s">
-        <v>2056</v>
-      </c>
       <c r="AZ7" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>2055</v>
+      </c>
+      <c r="BG7" t="s">
         <v>2058</v>
       </c>
-      <c r="BA7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>2045</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>2067</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>2072</v>
-      </c>
       <c r="BH7" t="s">
-        <v>2075</v>
+        <v>2061</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>2066</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>2068</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>2055</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>2085</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:70">
       <c r="A8">
         <v>7</v>
       </c>
@@ -43055,121 +43295,151 @@
         <v>1968</v>
       </c>
       <c r="W8" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X8" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y8" t="s">
-        <v>2019</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="AA8" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="AB8" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="AC8" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="AD8" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="AE8" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AF8" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AG8" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AH8" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AI8" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AJ8" t="s">
-        <v>41</v>
+        <v>2031</v>
       </c>
       <c r="AK8" t="s">
-        <v>2034</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s">
-        <v>2041</v>
+        <v>1993</v>
       </c>
       <c r="AM8" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AN8" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AO8" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AP8" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AQ8" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AR8" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AS8" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AT8" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AU8" t="s">
-        <v>2043</v>
+        <v>41</v>
       </c>
       <c r="AV8" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="AW8" t="s">
-        <v>2048</v>
+        <v>2053</v>
       </c>
       <c r="AX8" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AY8" t="s">
         <v>2053</v>
       </c>
-      <c r="AY8" t="s">
-        <v>2055</v>
-      </c>
       <c r="AZ8" t="s">
-        <v>2060</v>
+        <v>2051</v>
       </c>
       <c r="BA8" t="s">
-        <v>2062</v>
+        <v>2053</v>
       </c>
       <c r="BB8" t="s">
-        <v>2012</v>
+        <v>2053</v>
       </c>
       <c r="BC8" t="s">
-        <v>2067</v>
+        <v>2053</v>
       </c>
       <c r="BD8" t="s">
-        <v>2068</v>
+        <v>2053</v>
       </c>
       <c r="BE8" t="s">
-        <v>41</v>
+        <v>2053</v>
       </c>
       <c r="BF8" t="s">
-        <v>41</v>
+        <v>2057</v>
       </c>
       <c r="BG8" t="s">
-        <v>41</v>
+        <v>2058</v>
       </c>
       <c r="BH8" t="s">
+        <v>2063</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>2065</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>2070</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>2078</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:70">
       <c r="A9">
         <v>8</v>
       </c>
@@ -43237,121 +43507,151 @@
         <v>1968</v>
       </c>
       <c r="W9" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X9" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y9" t="s">
-        <v>2019</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="AA9" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AB9" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AC9" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="AD9" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AE9" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="AF9" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AG9" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="AH9" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AI9" t="s">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="AJ9" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="AK9" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="AL9" t="s">
         <v>2043</v>
       </c>
       <c r="AM9" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AN9" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AO9" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AP9" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AQ9" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AR9" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AS9" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AT9" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AU9" t="s">
-        <v>2041</v>
+        <v>41</v>
       </c>
       <c r="AV9" t="s">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="AW9" t="s">
-        <v>2048</v>
+        <v>2053</v>
       </c>
       <c r="AX9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BE9" t="s">
         <v>2051</v>
       </c>
-      <c r="AY9" t="s">
-        <v>2055</v>
-      </c>
-      <c r="AZ9" t="s">
+      <c r="BF9" t="s">
+        <v>2057</v>
+      </c>
+      <c r="BG9" t="s">
         <v>2058</v>
       </c>
-      <c r="BA9" t="s">
-        <v>2062</v>
-      </c>
-      <c r="BB9" t="s">
+      <c r="BH9" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BI9" t="s">
         <v>2065</v>
       </c>
-      <c r="BC9" t="s">
-        <v>2067</v>
-      </c>
-      <c r="BD9" t="s">
+      <c r="BJ9" t="s">
         <v>2068</v>
       </c>
-      <c r="BE9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH9" t="s">
+      <c r="BK9" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>2075</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:70">
       <c r="A10">
         <v>9</v>
       </c>
@@ -43419,121 +43719,151 @@
         <v>1969</v>
       </c>
       <c r="W10" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X10" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y10" t="s">
-        <v>2018</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AA10" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AB10" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AC10" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AD10" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AE10" t="s">
-        <v>2018</v>
+        <v>2029</v>
       </c>
       <c r="AF10" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AG10" t="s">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="AH10" t="s">
-        <v>2018</v>
+        <v>2029</v>
       </c>
       <c r="AI10" t="s">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="AJ10" t="s">
-        <v>41</v>
+        <v>2029</v>
       </c>
       <c r="AK10" t="s">
-        <v>2036</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AM10" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AN10" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AO10" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AP10" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AQ10" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AR10" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AS10" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AT10" t="s">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="AU10" t="s">
-        <v>2044</v>
+        <v>41</v>
       </c>
       <c r="AV10" t="s">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="AW10" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="AX10" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>2051</v>
       </c>
-      <c r="AY10" t="s">
-        <v>2055</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>2057</v>
+      </c>
+      <c r="BG10" t="s">
         <v>2059</v>
       </c>
-      <c r="BA10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>2064</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>2067</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>2062</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>41</v>
-      </c>
       <c r="BH10" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>2065</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>2069</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:70">
       <c r="A11">
         <v>10</v>
       </c>
@@ -43541,7 +43871,7 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D11" t="s">
         <v>941</v>
@@ -43601,121 +43931,151 @@
         <v>1967</v>
       </c>
       <c r="W11" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X11" t="s">
-        <v>2016</v>
+        <v>2026</v>
       </c>
       <c r="Y11" t="s">
-        <v>2020</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AA11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AB11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AC11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AD11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AE11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AF11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AG11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AH11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AI11" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AJ11" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="AK11" t="s">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="AL11" t="s">
-        <v>2043</v>
+        <v>1991</v>
       </c>
       <c r="AM11" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AN11" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AO11" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AP11" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AQ11" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AR11" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AS11" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AT11" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AU11" t="s">
-        <v>2042</v>
+        <v>41</v>
       </c>
       <c r="AV11" t="s">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="AW11" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="AX11" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="AY11" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="AZ11" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="BA11" t="s">
-        <v>2063</v>
+        <v>2053</v>
       </c>
       <c r="BB11" t="s">
-        <v>2012</v>
+        <v>2053</v>
       </c>
       <c r="BC11" t="s">
-        <v>2067</v>
+        <v>2053</v>
       </c>
       <c r="BD11" t="s">
-        <v>2068</v>
+        <v>2053</v>
       </c>
       <c r="BE11" t="s">
-        <v>41</v>
+        <v>2052</v>
       </c>
       <c r="BF11" t="s">
-        <v>41</v>
+        <v>2055</v>
       </c>
       <c r="BG11" t="s">
-        <v>41</v>
+        <v>2059</v>
       </c>
       <c r="BH11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>2064</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>2070</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>2073</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>2022</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>2078</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:70">
       <c r="A12">
         <v>11</v>
       </c>
@@ -43723,7 +44083,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D12" t="s">
         <v>941</v>
@@ -43783,121 +44143,151 @@
         <v>1967</v>
       </c>
       <c r="W12" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X12" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y12" t="s">
-        <v>2020</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AA12" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AB12" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AC12" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="AD12" t="s">
-        <v>2021</v>
+        <v>2032</v>
       </c>
       <c r="AE12" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="AF12" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AG12" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AH12" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AI12" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AJ12" t="s">
-        <v>41</v>
+        <v>2029</v>
       </c>
       <c r="AK12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="s">
         <v>1911</v>
       </c>
-      <c r="AL12" t="s">
-        <v>2043</v>
-      </c>
       <c r="AM12" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AN12" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AO12" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AP12" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AQ12" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AR12" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AS12" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AT12" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AU12" t="s">
-        <v>2041</v>
+        <v>41</v>
       </c>
       <c r="AV12" t="s">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="AW12" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="AX12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BE12" t="s">
         <v>2051</v>
       </c>
-      <c r="AY12" t="s">
-        <v>2056</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>2060</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>2062</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>2064</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>2067</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>2068</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>41</v>
-      </c>
       <c r="BF12" t="s">
-        <v>41</v>
+        <v>2057</v>
       </c>
       <c r="BG12" t="s">
-        <v>41</v>
+        <v>2059</v>
       </c>
       <c r="BH12" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>2066</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>2070</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>2078</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:70">
       <c r="A13">
         <v>12</v>
       </c>
@@ -43965,121 +44355,151 @@
         <v>1969</v>
       </c>
       <c r="W13" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X13" t="s">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="Y13" t="s">
-        <v>2021</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="AA13" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="AB13" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AC13" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="AD13" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="AE13" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="AF13" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AG13" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AH13" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AI13" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="AJ13" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="AK13" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="AL13" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="AM13" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AN13" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="AO13" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AP13" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="AQ13" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AR13" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AS13" t="s">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="AT13" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AU13" t="s">
-        <v>2041</v>
+        <v>41</v>
       </c>
       <c r="AV13" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="AW13" t="s">
-        <v>2048</v>
+        <v>2053</v>
       </c>
       <c r="AX13" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BC13" t="s">
         <v>2052</v>
       </c>
-      <c r="AY13" t="s">
-        <v>2057</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>2061</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>41</v>
-      </c>
       <c r="BD13" t="s">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="BE13" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="BF13" t="s">
+        <v>2055</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>2058</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="BI13" t="s">
         <v>2067</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BJ13" t="s">
         <v>2071</v>
       </c>
-      <c r="BH13" t="s">
-        <v>2074</v>
+      <c r="BK13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>2055</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>2081</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>2084</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:70">
       <c r="A14">
         <v>13</v>
       </c>
@@ -44147,121 +44567,151 @@
         <v>1968</v>
       </c>
       <c r="W14" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X14" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Y14" t="s">
-        <v>2019</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="AA14" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="AB14" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AC14" t="s">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="AD14" t="s">
-        <v>2018</v>
+        <v>2029</v>
       </c>
       <c r="AE14" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AF14" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AG14" t="s">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="AH14" t="s">
-        <v>2018</v>
+        <v>2029</v>
       </c>
       <c r="AI14" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AJ14" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="AK14" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="AL14" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="AM14" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AN14" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AO14" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AP14" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="AQ14" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AR14" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AS14" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AT14" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AU14" t="s">
-        <v>2041</v>
+        <v>41</v>
       </c>
       <c r="AV14" t="s">
-        <v>2012</v>
+        <v>2054</v>
       </c>
       <c r="AW14" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="AX14" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AY14" t="s">
         <v>2052</v>
       </c>
-      <c r="AY14" t="s">
-        <v>2012</v>
-      </c>
       <c r="AZ14" t="s">
-        <v>2012</v>
+        <v>2052</v>
       </c>
       <c r="BA14" t="s">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="BB14" t="s">
-        <v>41</v>
+        <v>2053</v>
       </c>
       <c r="BC14" t="s">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="BD14" t="s">
-        <v>41</v>
+        <v>2051</v>
       </c>
       <c r="BE14" t="s">
-        <v>2012</v>
+        <v>2051</v>
       </c>
       <c r="BF14" t="s">
-        <v>2067</v>
+        <v>2022</v>
       </c>
       <c r="BG14" t="s">
-        <v>2071</v>
+        <v>2059</v>
       </c>
       <c r="BH14" t="s">
-        <v>2012</v>
+        <v>2062</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>2081</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:70">
       <c r="A15">
         <v>14</v>
       </c>
@@ -44329,121 +44779,151 @@
         <v>1967</v>
       </c>
       <c r="W15" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X15" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y15" t="s">
-        <v>2020</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AA15" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="AB15" t="s">
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="AC15" t="s">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="AD15" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AE15" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AF15" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AG15" t="s">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="AH15" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AI15" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AJ15" t="s">
-        <v>41</v>
+        <v>2031</v>
       </c>
       <c r="AK15" t="s">
-        <v>2039</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="AM15" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AN15" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AO15" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AP15" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AQ15" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AR15" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AS15" t="s">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="AT15" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AU15" t="s">
-        <v>2044</v>
+        <v>41</v>
       </c>
       <c r="AV15" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="AW15" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="AX15" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AY15" t="s">
         <v>2053</v>
       </c>
-      <c r="AY15" t="s">
-        <v>2055</v>
-      </c>
       <c r="AZ15" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
       <c r="BA15" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
       <c r="BB15" t="s">
-        <v>2066</v>
+        <v>2053</v>
       </c>
       <c r="BC15" t="s">
-        <v>2067</v>
+        <v>2052</v>
       </c>
       <c r="BD15" t="s">
-        <v>2062</v>
+        <v>2051</v>
       </c>
       <c r="BE15" t="s">
-        <v>41</v>
+        <v>2054</v>
       </c>
       <c r="BF15" t="s">
-        <v>41</v>
+        <v>2057</v>
       </c>
       <c r="BG15" t="s">
-        <v>41</v>
+        <v>2060</v>
       </c>
       <c r="BH15" t="s">
+        <v>2063</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>2065</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>2071</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>2076</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:70">
       <c r="A16">
         <v>15</v>
       </c>
@@ -44511,121 +44991,151 @@
         <v>1968</v>
       </c>
       <c r="W16" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X16" t="s">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="Y16" t="s">
-        <v>2020</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AA16" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="AB16" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="AC16" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AD16" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="AE16" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="AF16" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AG16" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="AH16" t="s">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="AI16" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="AJ16" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="AK16" t="s">
         <v>2040</v>
       </c>
       <c r="AL16" t="s">
-        <v>2041</v>
+        <v>2048</v>
       </c>
       <c r="AM16" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AN16" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AO16" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AP16" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AQ16" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AR16" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AS16" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AT16" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="AU16" t="s">
-        <v>2041</v>
+        <v>41</v>
       </c>
       <c r="AV16" t="s">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="AW16" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="AX16" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="AY16" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>2053</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BF16" t="s">
         <v>2056</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>2059</v>
-      </c>
-      <c r="BA16" t="s">
+      <c r="BG16" t="s">
+        <v>2058</v>
+      </c>
+      <c r="BH16" t="s">
         <v>2062</v>
       </c>
-      <c r="BB16" t="s">
-        <v>2064</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>2067</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>2063</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
+        <v>2066</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>2069</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>2073</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:70">
       <c r="A17">
         <v>16</v>
       </c>
@@ -44693,117 +45203,147 @@
         <v>1968</v>
       </c>
       <c r="W17" t="s">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="X17" t="s">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="Y17" t="s">
-        <v>2019</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>2018</v>
+        <v>2029</v>
       </c>
       <c r="AA17" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="AB17" t="s">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="AC17" t="s">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="AD17" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AE17" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AF17" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AG17" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AH17" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AI17" t="s">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="AJ17" t="s">
-        <v>41</v>
+        <v>2028</v>
       </c>
       <c r="AK17" t="s">
-        <v>2037</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AM17" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AN17" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="AO17" t="s">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="AP17" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="AQ17" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AR17" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AS17" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AT17" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="AU17" t="s">
-        <v>2044</v>
+        <v>41</v>
       </c>
       <c r="AV17" t="s">
-        <v>2046</v>
+        <v>2054</v>
       </c>
       <c r="AW17" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="AX17" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AY17" t="s">
         <v>2051</v>
       </c>
-      <c r="AY17" t="s">
-        <v>2057</v>
-      </c>
       <c r="AZ17" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="BA17" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
       <c r="BB17" t="s">
-        <v>2066</v>
+        <v>2054</v>
       </c>
       <c r="BC17" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>2056</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>2059</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BI17" t="s">
         <v>2067</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BJ17" t="s">
         <v>2068</v>
       </c>
-      <c r="BE17" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH17" t="s">
+      <c r="BK17" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>2076</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>2078</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -44888,73 +45428,73 @@
         <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>2076</v>
+        <v>2086</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>2077</v>
+        <v>2087</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>2078</v>
+        <v>2088</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>2079</v>
+        <v>2089</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>2080</v>
+        <v>2090</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>2081</v>
+        <v>2091</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>2082</v>
+        <v>2092</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>2083</v>
+        <v>2093</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>2084</v>
+        <v>2094</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2085</v>
+        <v>2095</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2086</v>
+        <v>2096</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2087</v>
+        <v>2097</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>2088</v>
+        <v>2098</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>2089</v>
+        <v>2099</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>2090</v>
+        <v>2100</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2091</v>
+        <v>2101</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>2092</v>
+        <v>2102</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>2093</v>
+        <v>2103</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>2094</v>
+        <v>2104</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>2095</v>
+        <v>2105</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>2096</v>
+        <v>2106</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>2097</v>
+        <v>2107</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>2098</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="2" spans="1:45">
@@ -45025,73 +45565,73 @@
         <v>1968</v>
       </c>
       <c r="W2" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="X2" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="Y2" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="Z2" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="AA2" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AB2" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC2" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AD2" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AE2" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF2" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AG2" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH2" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AI2" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AJ2" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK2" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AL2" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AM2" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN2" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO2" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AP2" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ2" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AR2" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS2" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -45162,73 +45702,73 @@
         <v>1969</v>
       </c>
       <c r="W3" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="X3" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Y3" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Z3" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="AA3" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AB3" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC3" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AD3" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AJ3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AM3" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AP3" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ3" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AR3" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS3" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -45299,73 +45839,73 @@
         <v>1967</v>
       </c>
       <c r="W4" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="X4" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Y4" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Z4" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="AA4" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AB4" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AC4" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AD4" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AE4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AF4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AG4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AH4" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI4" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AJ4" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AL4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AM4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AO4" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AP4" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ4" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AR4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS4" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -45436,73 +45976,73 @@
         <v>1967</v>
       </c>
       <c r="W5" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="X5" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Y5" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="Z5" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="AA5" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AB5" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC5" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AD5" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG5" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AH5" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AI5" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AJ5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL5" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AM5" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AP5" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ5" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AR5" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS5" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -45573,73 +46113,73 @@
         <v>1969</v>
       </c>
       <c r="W6" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="X6" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="Y6" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="Z6" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="AA6" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="AB6" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC6" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AD6" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AE6" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF6" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG6" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AH6" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI6" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AJ6" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AK6" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AL6" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AM6" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN6" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO6" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AP6" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AQ6" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AR6" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS6" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -45710,73 +46250,73 @@
         <v>1968</v>
       </c>
       <c r="W7" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="X7" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="Y7" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="Z7" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="AA7" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AB7" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC7" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AD7" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE7" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AF7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH7" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AI7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AJ7" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AK7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AM7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AN7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AP7" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AQ7" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AR7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AS7" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -45847,73 +46387,73 @@
         <v>1968</v>
       </c>
       <c r="W8" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="X8" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Y8" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="Z8" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="AA8" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AB8" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC8" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AD8" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF8" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AG8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AJ8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AM8" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO8" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AP8" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ8" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AR8" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS8" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -45984,73 +46524,73 @@
         <v>1969</v>
       </c>
       <c r="W9" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="X9" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Y9" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Z9" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="AA9" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="AB9" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC9" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AD9" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AE9" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF9" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG9" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH9" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AI9" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AJ9" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK9" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AL9" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AM9" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN9" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AO9" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AP9" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ9" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AR9" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS9" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -46121,73 +46661,73 @@
         <v>1967</v>
       </c>
       <c r="W10" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="X10" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="Y10" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Z10" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="AA10" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="AB10" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AC10" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AD10" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AE10" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF10" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG10" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH10" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AI10" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AJ10" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK10" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AL10" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AM10" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN10" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO10" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AP10" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ10" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AR10" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS10" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -46258,73 +46798,73 @@
         <v>1967</v>
       </c>
       <c r="W11" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="X11" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="Y11" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Z11" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="AA11" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AB11" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="AC11" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AD11" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AE11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI11" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AJ11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AM11" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AP11" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ11" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AR11" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS11" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -46395,73 +46935,73 @@
         <v>1969</v>
       </c>
       <c r="W12" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="X12" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Y12" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Z12" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="AA12" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AB12" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC12" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AD12" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AJ12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AM12" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO12" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AP12" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ12" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AR12" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS12" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -46532,73 +47072,73 @@
         <v>1968</v>
       </c>
       <c r="W13" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="X13" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Y13" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="Z13" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="AA13" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="AB13" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC13" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AD13" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE13" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF13" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG13" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AH13" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI13" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AJ13" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AK13" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL13" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AM13" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN13" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO13" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AP13" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ13" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AR13" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AS13" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -46669,73 +47209,73 @@
         <v>1968</v>
       </c>
       <c r="W14" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="X14" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Y14" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="Z14" t="s">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="AA14" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="AB14" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AC14" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AD14" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF14" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AG14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AJ14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AM14" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO14" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AP14" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ14" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AR14" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS14" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -46806,73 +47346,73 @@
         <v>1967</v>
       </c>
       <c r="W15" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="X15" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Y15" t="s">
-        <v>2100</v>
+        <v>2110</v>
       </c>
       <c r="Z15" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="AA15" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AB15" t="s">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="AC15" t="s">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="AD15" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE15" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF15" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AG15" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH15" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AI15" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AJ15" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK15" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL15" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AM15" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN15" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO15" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AP15" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ15" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AR15" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS15" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -46943,73 +47483,73 @@
         <v>1968</v>
       </c>
       <c r="W16" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="X16" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="Y16" t="s">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="Z16" t="s">
-        <v>2099</v>
+        <v>2109</v>
       </c>
       <c r="AA16" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="AB16" t="s">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="AC16" t="s">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="AD16" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="AE16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AF16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AG16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AH16" t="s">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="AI16" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AJ16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AK16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AL16" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AM16" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AN16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AO16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AP16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
       <c r="AQ16" t="s">
-        <v>2112</v>
+        <v>2122</v>
       </c>
       <c r="AR16" t="s">
-        <v>2110</v>
+        <v>2120</v>
       </c>
       <c r="AS16" t="s">
-        <v>2109</v>
+        <v>2119</v>
       </c>
     </row>
   </sheetData>

--- a/data/limpios/formularios_greentic_estudiantes.xlsx
+++ b/data/limpios/formularios_greentic_estudiantes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\Github\CFK\data\limpios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C505062-76FA-43E0-9A58-46C41E22AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sectores_unidos" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="pregunta_4" sheetId="5" r:id="rId5"/>
     <sheet name="pregunta_5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23343" uniqueCount="2152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23343" uniqueCount="2161">
   <si>
     <t>ID</t>
   </si>
@@ -6476,16 +6482,43 @@
   </si>
   <si>
     <t>Respuestas</t>
+  </si>
+  <si>
+    <t>3.01. Ingeniería de sistemas</t>
+  </si>
+  <si>
+    <t>3.02. Otras ingenierías (industrial, civil, mecánica ...)</t>
+  </si>
+  <si>
+    <t>3.03. Matemáticas</t>
+  </si>
+  <si>
+    <t>3.04. Ciencias (Física, Química o Biología)</t>
+  </si>
+  <si>
+    <t>3.05. Derecho</t>
+  </si>
+  <si>
+    <t>3.06. Enfermería</t>
+  </si>
+  <si>
+    <t>3.07. Administración de empresas</t>
+  </si>
+  <si>
+    <t>3.08. Economía</t>
+  </si>
+  <si>
+    <t>3.09. Psicología</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6537,18 +6570,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6595,7 +6640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6627,9 +6672,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6661,6 +6724,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6836,14 +6917,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +7036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7063,7 +7146,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7173,7 +7256,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7283,7 +7366,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7393,7 +7476,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7503,7 +7586,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7613,7 +7696,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7723,7 +7806,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7833,7 +7916,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>16</v>
       </c>
@@ -7943,7 +8026,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>27</v>
       </c>
@@ -8053,7 +8136,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>29</v>
       </c>
@@ -8163,7 +8246,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>30</v>
       </c>
@@ -8273,7 +8356,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>34</v>
       </c>
@@ -8383,7 +8466,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>36</v>
       </c>
@@ -8493,7 +8576,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>43</v>
       </c>
@@ -8603,7 +8686,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>44</v>
       </c>
@@ -8713,7 +8796,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>48</v>
       </c>
@@ -8823,7 +8906,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>50</v>
       </c>
@@ -8933,7 +9016,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>52</v>
       </c>
@@ -9043,7 +9126,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>53</v>
       </c>
@@ -9153,7 +9236,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>55</v>
       </c>
@@ -9263,7 +9346,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>56</v>
       </c>
@@ -9373,7 +9456,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>57</v>
       </c>
@@ -9483,7 +9566,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>58</v>
       </c>
@@ -9593,7 +9676,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>60</v>
       </c>
@@ -9703,7 +9786,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>61</v>
       </c>
@@ -9813,7 +9896,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>69</v>
       </c>
@@ -9923,7 +10006,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>77</v>
       </c>
@@ -10033,7 +10116,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>80</v>
       </c>
@@ -10143,7 +10226,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>96</v>
       </c>
@@ -10253,7 +10336,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>98</v>
       </c>
@@ -10363,7 +10446,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>103</v>
       </c>
@@ -10473,7 +10556,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>105</v>
       </c>
@@ -10583,7 +10666,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>106</v>
       </c>
@@ -10693,7 +10776,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>107</v>
       </c>
@@ -10803,7 +10886,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>109</v>
       </c>
@@ -10913,7 +10996,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>130</v>
       </c>
@@ -11023,7 +11106,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>133</v>
       </c>
@@ -11133,7 +11216,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>142</v>
       </c>
@@ -11243,7 +11326,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>150</v>
       </c>
@@ -11353,7 +11436,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>152</v>
       </c>
@@ -11463,7 +11546,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>153</v>
       </c>
@@ -11573,7 +11656,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>156</v>
       </c>
@@ -11683,7 +11766,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>157</v>
       </c>
@@ -11793,7 +11876,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>158</v>
       </c>
@@ -11903,7 +11986,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>163</v>
       </c>
@@ -12013,7 +12096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>167</v>
       </c>
@@ -12123,7 +12206,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>169</v>
       </c>
@@ -12233,7 +12316,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>199</v>
       </c>
@@ -12343,7 +12426,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>202</v>
       </c>
@@ -12453,7 +12536,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>205</v>
       </c>
@@ -12563,7 +12646,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>207</v>
       </c>
@@ -12673,7 +12756,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>209</v>
       </c>
@@ -12783,7 +12866,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>211</v>
       </c>
@@ -12893,7 +12976,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>212</v>
       </c>
@@ -13003,7 +13086,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>216</v>
       </c>
@@ -13113,7 +13196,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>220</v>
       </c>
@@ -13223,7 +13306,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>221</v>
       </c>
@@ -13333,7 +13416,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>222</v>
       </c>
@@ -13443,7 +13526,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>223</v>
       </c>
@@ -13553,7 +13636,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>224</v>
       </c>
@@ -13663,7 +13746,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>225</v>
       </c>
@@ -13773,7 +13856,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>226</v>
       </c>
@@ -13883,7 +13966,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>227</v>
       </c>
@@ -13993,7 +14076,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>228</v>
       </c>
@@ -14103,7 +14186,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>229</v>
       </c>
@@ -14213,7 +14296,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>230</v>
       </c>
@@ -14323,7 +14406,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>231</v>
       </c>
@@ -14433,7 +14516,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>232</v>
       </c>
@@ -14543,7 +14626,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>233</v>
       </c>
@@ -14653,7 +14736,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>234</v>
       </c>
@@ -14763,7 +14846,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>235</v>
       </c>
@@ -14873,7 +14956,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>236</v>
       </c>
@@ -14983,7 +15066,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>237</v>
       </c>
@@ -15093,7 +15176,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>238</v>
       </c>
@@ -15203,7 +15286,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>239</v>
       </c>
@@ -15313,7 +15396,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>240</v>
       </c>
@@ -15423,7 +15506,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>241</v>
       </c>
@@ -15533,7 +15616,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>242</v>
       </c>
@@ -15643,7 +15726,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>243</v>
       </c>
@@ -15753,7 +15836,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>244</v>
       </c>
@@ -15863,7 +15946,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>245</v>
       </c>
@@ -15973,7 +16056,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>248</v>
       </c>
@@ -16083,7 +16166,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>249</v>
       </c>
@@ -16193,7 +16276,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>253</v>
       </c>
@@ -16303,7 +16386,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>254</v>
       </c>
@@ -16413,7 +16496,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>255</v>
       </c>
@@ -16523,7 +16606,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>258</v>
       </c>
@@ -16633,7 +16716,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>260</v>
       </c>
@@ -16743,7 +16826,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>272</v>
       </c>
@@ -16853,7 +16936,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>275</v>
       </c>
@@ -16963,7 +17046,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>276</v>
       </c>
@@ -17073,7 +17156,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>310</v>
       </c>
@@ -17183,7 +17266,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>315</v>
       </c>
@@ -17293,7 +17376,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>316</v>
       </c>
@@ -17403,7 +17486,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>319</v>
       </c>
@@ -17513,7 +17596,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>320</v>
       </c>
@@ -17623,7 +17706,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>321</v>
       </c>
@@ -17733,7 +17816,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>323</v>
       </c>
@@ -17843,7 +17926,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>324</v>
       </c>
@@ -17953,7 +18036,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>325</v>
       </c>
@@ -18063,7 +18146,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>326</v>
       </c>
@@ -18173,7 +18256,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>328</v>
       </c>
@@ -18283,7 +18366,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>329</v>
       </c>
@@ -18393,7 +18476,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>330</v>
       </c>
@@ -18503,7 +18586,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>332</v>
       </c>
@@ -18613,7 +18696,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>333</v>
       </c>
@@ -18723,7 +18806,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>337</v>
       </c>
@@ -18833,7 +18916,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>338</v>
       </c>
@@ -18943,7 +19026,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>340</v>
       </c>
@@ -19053,7 +19136,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>342</v>
       </c>
@@ -19163,7 +19246,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>343</v>
       </c>
@@ -19273,7 +19356,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>344</v>
       </c>
@@ -19383,7 +19466,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>345</v>
       </c>
@@ -19493,7 +19576,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>346</v>
       </c>
@@ -19603,7 +19686,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>347</v>
       </c>
@@ -19713,7 +19796,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>348</v>
       </c>
@@ -19823,7 +19906,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>351</v>
       </c>
@@ -19933,7 +20016,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>352</v>
       </c>
@@ -20043,7 +20126,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>354</v>
       </c>
@@ -20153,7 +20236,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>355</v>
       </c>
@@ -20263,7 +20346,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>356</v>
       </c>
@@ -20373,7 +20456,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>367</v>
       </c>
@@ -20483,7 +20566,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>368</v>
       </c>
@@ -20593,7 +20676,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>369</v>
       </c>
@@ -20703,7 +20786,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>370</v>
       </c>
@@ -20813,7 +20896,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>371</v>
       </c>
@@ -20923,7 +21006,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>374</v>
       </c>
@@ -21033,7 +21116,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>375</v>
       </c>
@@ -21143,7 +21226,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>376</v>
       </c>
@@ -21253,7 +21336,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>377</v>
       </c>
@@ -21363,7 +21446,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>378</v>
       </c>
@@ -21473,7 +21556,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>379</v>
       </c>
@@ -21583,7 +21666,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>380</v>
       </c>
@@ -21693,7 +21776,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>382</v>
       </c>
@@ -21803,7 +21886,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>383</v>
       </c>
@@ -21913,7 +21996,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>384</v>
       </c>
@@ -22023,7 +22106,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>386</v>
       </c>
@@ -22133,7 +22216,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>387</v>
       </c>
@@ -22243,7 +22326,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>388</v>
       </c>
@@ -22353,7 +22436,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>389</v>
       </c>
@@ -22463,7 +22546,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>390</v>
       </c>
@@ -22573,7 +22656,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>392</v>
       </c>
@@ -22683,7 +22766,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>393</v>
       </c>
@@ -22793,7 +22876,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>394</v>
       </c>
@@ -22903,7 +22986,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>395</v>
       </c>
@@ -23013,7 +23096,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>400</v>
       </c>
@@ -23123,7 +23206,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>401</v>
       </c>
@@ -23173,7 +23256,7 @@
         <v>1468</v>
       </c>
       <c r="Q149">
-        <v>1.041984401</v>
+        <v>1.0419844009999999</v>
       </c>
       <c r="R149" t="s">
         <v>1713</v>
@@ -23233,7 +23316,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>402</v>
       </c>
@@ -23343,7 +23426,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>403</v>
       </c>
@@ -23453,7 +23536,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>404</v>
       </c>
@@ -23563,7 +23646,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>405</v>
       </c>
@@ -23673,7 +23756,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>406</v>
       </c>
@@ -23783,7 +23866,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>407</v>
       </c>
@@ -23893,7 +23976,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>408</v>
       </c>
@@ -24003,7 +24086,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>409</v>
       </c>
@@ -24113,7 +24196,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>414</v>
       </c>
@@ -24223,7 +24306,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>415</v>
       </c>
@@ -24333,7 +24416,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>416</v>
       </c>
@@ -24443,7 +24526,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>418</v>
       </c>
@@ -24553,7 +24636,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>419</v>
       </c>
@@ -24663,7 +24746,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>425</v>
       </c>
@@ -24773,7 +24856,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>426</v>
       </c>
@@ -24883,7 +24966,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>478</v>
       </c>
@@ -24993,7 +25076,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>484</v>
       </c>
@@ -25103,7 +25186,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>487</v>
       </c>
@@ -25213,7 +25296,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>488</v>
       </c>
@@ -25323,7 +25406,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>489</v>
       </c>
@@ -25433,7 +25516,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>490</v>
       </c>
@@ -25543,7 +25626,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>492</v>
       </c>
@@ -25653,7 +25736,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>494</v>
       </c>
@@ -25763,7 +25846,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="173" spans="1:36">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>495</v>
       </c>
@@ -25873,7 +25956,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="174" spans="1:36">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>499</v>
       </c>
@@ -25983,7 +26066,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="175" spans="1:36">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>501</v>
       </c>
@@ -26093,7 +26176,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="176" spans="1:36">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>502</v>
       </c>
@@ -26203,7 +26286,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="177" spans="1:36">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>503</v>
       </c>
@@ -26313,7 +26396,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="178" spans="1:36">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>507</v>
       </c>
@@ -26423,7 +26506,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="179" spans="1:36">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>508</v>
       </c>
@@ -26533,7 +26616,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="180" spans="1:36">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>509</v>
       </c>
@@ -26643,7 +26726,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="181" spans="1:36">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>510</v>
       </c>
@@ -26753,7 +26836,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="182" spans="1:36">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>511</v>
       </c>
@@ -26863,7 +26946,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="183" spans="1:36">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>512</v>
       </c>
@@ -26973,7 +27056,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="184" spans="1:36">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>513</v>
       </c>
@@ -27083,7 +27166,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="185" spans="1:36">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>516</v>
       </c>
@@ -27193,7 +27276,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="186" spans="1:36">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>517</v>
       </c>
@@ -27303,7 +27386,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="187" spans="1:36">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>519</v>
       </c>
@@ -27413,7 +27496,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="188" spans="1:36">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>520</v>
       </c>
@@ -27523,7 +27606,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="189" spans="1:36">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>521</v>
       </c>
@@ -27633,7 +27716,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="190" spans="1:36">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>522</v>
       </c>
@@ -27743,7 +27826,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="191" spans="1:36">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>523</v>
       </c>
@@ -27853,7 +27936,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="192" spans="1:36">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>524</v>
       </c>
@@ -27963,7 +28046,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="193" spans="1:36">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>525</v>
       </c>
@@ -28073,7 +28156,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="194" spans="1:36">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>526</v>
       </c>
@@ -28183,7 +28266,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="195" spans="1:36">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>527</v>
       </c>
@@ -28293,7 +28376,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="196" spans="1:36">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>528</v>
       </c>
@@ -28403,7 +28486,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="197" spans="1:36">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>529</v>
       </c>
@@ -28513,7 +28596,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="198" spans="1:36">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>530</v>
       </c>
@@ -28623,7 +28706,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="199" spans="1:36">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>531</v>
       </c>
@@ -28733,7 +28816,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="200" spans="1:36">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>532</v>
       </c>
@@ -28843,7 +28926,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="201" spans="1:36">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>533</v>
       </c>
@@ -28953,7 +29036,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="202" spans="1:36">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>538</v>
       </c>
@@ -29063,7 +29146,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="203" spans="1:36">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>541</v>
       </c>
@@ -29173,7 +29256,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="204" spans="1:36">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>542</v>
       </c>
@@ -29283,7 +29366,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="205" spans="1:36">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>543</v>
       </c>
@@ -29393,7 +29476,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="206" spans="1:36">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>547</v>
       </c>
@@ -29503,7 +29586,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="207" spans="1:36">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>553</v>
       </c>
@@ -29613,7 +29696,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="208" spans="1:36">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>557</v>
       </c>
@@ -29723,7 +29806,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="209" spans="1:36">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>564</v>
       </c>
@@ -29833,7 +29916,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="210" spans="1:36">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>570</v>
       </c>
@@ -29943,7 +30026,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="211" spans="1:36">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>571</v>
       </c>
@@ -30053,7 +30136,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="212" spans="1:36">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>615</v>
       </c>
@@ -30163,7 +30246,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="213" spans="1:36">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>641</v>
       </c>
@@ -30273,7 +30356,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="214" spans="1:36">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>655</v>
       </c>
@@ -30383,7 +30466,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="215" spans="1:36">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>656</v>
       </c>
@@ -30493,7 +30576,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="216" spans="1:36">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>659</v>
       </c>
@@ -30603,7 +30686,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="217" spans="1:36">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>663</v>
       </c>
@@ -30713,7 +30796,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="218" spans="1:36">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>664</v>
       </c>
@@ -30823,7 +30906,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="219" spans="1:36">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>665</v>
       </c>
@@ -30933,7 +31016,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="220" spans="1:36">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>666</v>
       </c>
@@ -31043,7 +31126,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="221" spans="1:36">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>667</v>
       </c>
@@ -31153,7 +31236,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="222" spans="1:36">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>668</v>
       </c>
@@ -31263,7 +31346,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="223" spans="1:36">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>669</v>
       </c>
@@ -31373,7 +31456,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="224" spans="1:36">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>674</v>
       </c>
@@ -31483,7 +31566,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="225" spans="1:36">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>681</v>
       </c>
@@ -31593,7 +31676,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="226" spans="1:36">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>682</v>
       </c>
@@ -31703,7 +31786,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="227" spans="1:36">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>684</v>
       </c>
@@ -31813,7 +31896,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="228" spans="1:36">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>686</v>
       </c>
@@ -31923,7 +32006,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="229" spans="1:36">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>695</v>
       </c>
@@ -32033,7 +32116,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="230" spans="1:36">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>710</v>
       </c>
@@ -32143,7 +32226,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="231" spans="1:36">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>715</v>
       </c>
@@ -32253,7 +32336,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="232" spans="1:36">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>717</v>
       </c>
@@ -32363,7 +32446,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="233" spans="1:36">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>722</v>
       </c>
@@ -32473,7 +32556,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="234" spans="1:36">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>789</v>
       </c>
@@ -32583,7 +32666,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="235" spans="1:36">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>792</v>
       </c>
@@ -32693,7 +32776,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="236" spans="1:36">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>798</v>
       </c>
@@ -32803,7 +32886,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="237" spans="1:36">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>851</v>
       </c>
@@ -32913,7 +32996,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="238" spans="1:36">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>896</v>
       </c>
@@ -33023,7 +33106,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="239" spans="1:36">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>897</v>
       </c>
@@ -33133,7 +33216,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="240" spans="1:36">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>918</v>
       </c>
@@ -33243,7 +33326,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="241" spans="1:36">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>953</v>
       </c>
@@ -33353,7 +33436,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="242" spans="1:36">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>968</v>
       </c>
@@ -33463,7 +33546,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="243" spans="1:36">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>997</v>
       </c>
@@ -33573,7 +33656,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="244" spans="1:36">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1004</v>
       </c>
@@ -33683,7 +33766,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="245" spans="1:36">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1007</v>
       </c>
@@ -33793,7 +33876,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="246" spans="1:36">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1011</v>
       </c>
@@ -33903,7 +33986,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="247" spans="1:36">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1013</v>
       </c>
@@ -34013,7 +34096,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="248" spans="1:36">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1030</v>
       </c>
@@ -34123,7 +34206,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="249" spans="1:36">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1047</v>
       </c>
@@ -34233,7 +34316,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="250" spans="1:36">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1051</v>
       </c>
@@ -34343,7 +34426,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="251" spans="1:36">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1054</v>
       </c>
@@ -34453,7 +34536,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="252" spans="1:36">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1061</v>
       </c>
@@ -34563,7 +34646,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="253" spans="1:36">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1064</v>
       </c>
@@ -34673,7 +34756,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="254" spans="1:36">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1073</v>
       </c>
@@ -34783,7 +34866,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="255" spans="1:36">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1079</v>
       </c>
@@ -34893,7 +34976,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="256" spans="1:36">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1080</v>
       </c>
@@ -35003,7 +35086,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="257" spans="1:36">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1160</v>
       </c>
@@ -35113,7 +35196,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="258" spans="1:36">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1166</v>
       </c>
@@ -35223,7 +35306,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="259" spans="1:36">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1177</v>
       </c>
@@ -35333,7 +35416,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="260" spans="1:36">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1187</v>
       </c>
@@ -35443,7 +35526,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="261" spans="1:36">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1207</v>
       </c>
@@ -35553,7 +35636,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="262" spans="1:36">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1210</v>
       </c>
@@ -35663,7 +35746,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="263" spans="1:36">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1213</v>
       </c>
@@ -35773,7 +35856,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="264" spans="1:36">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1221</v>
       </c>
@@ -35883,7 +35966,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="265" spans="1:36">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1224</v>
       </c>
@@ -35993,7 +36076,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="266" spans="1:36">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1243</v>
       </c>
@@ -36103,7 +36186,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="267" spans="1:36">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1258</v>
       </c>
@@ -36213,7 +36296,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="268" spans="1:36">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1265</v>
       </c>
@@ -36323,7 +36406,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="269" spans="1:36">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1283</v>
       </c>
@@ -36433,7 +36516,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="270" spans="1:36">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2058</v>
       </c>
@@ -36543,7 +36626,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="271" spans="1:36">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>2907</v>
       </c>
@@ -36653,7 +36736,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="272" spans="1:36">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>2908</v>
       </c>
@@ -36763,7 +36846,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="273" spans="1:36">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>2910</v>
       </c>
@@ -36873,7 +36956,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="274" spans="1:36">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2940</v>
       </c>
@@ -36983,7 +37066,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="275" spans="1:36">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2941</v>
       </c>
@@ -37093,7 +37176,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="276" spans="1:36">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2996</v>
       </c>
@@ -37203,7 +37286,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="277" spans="1:36">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>3006</v>
       </c>
@@ -37313,7 +37396,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="278" spans="1:36">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>3708</v>
       </c>
@@ -37423,7 +37506,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="279" spans="1:36">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>3709</v>
       </c>
@@ -37533,7 +37616,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="280" spans="1:36">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>3710</v>
       </c>
@@ -37643,7 +37726,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="281" spans="1:36">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>3711</v>
       </c>
@@ -37753,7 +37836,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="282" spans="1:36">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>3712</v>
       </c>
@@ -37863,7 +37946,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="283" spans="1:36">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>3713</v>
       </c>
@@ -37973,7 +38056,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="284" spans="1:36">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>3714</v>
       </c>
@@ -38083,7 +38166,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="285" spans="1:36">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>3716</v>
       </c>
@@ -38193,7 +38276,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="286" spans="1:36">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>3717</v>
       </c>
@@ -38300,7 +38383,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="287" spans="1:36">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>3719</v>
       </c>
@@ -38410,7 +38493,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="288" spans="1:36">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>3720</v>
       </c>
@@ -38520,7 +38603,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="289" spans="1:36">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>3721</v>
       </c>
@@ -38630,7 +38713,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="290" spans="1:36">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>3722</v>
       </c>
@@ -38740,7 +38823,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="291" spans="1:36">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>3723</v>
       </c>
@@ -38850,7 +38933,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="292" spans="1:36">
+    <row r="292" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>3724</v>
       </c>
@@ -38960,7 +39043,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="293" spans="1:36">
+    <row r="293" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>3725</v>
       </c>
@@ -39070,7 +39153,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="294" spans="1:36">
+    <row r="294" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>3726</v>
       </c>
@@ -39180,7 +39263,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="295" spans="1:36">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>3727</v>
       </c>
@@ -39290,7 +39373,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="296" spans="1:36">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>3728</v>
       </c>
@@ -39400,7 +39483,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="297" spans="1:36">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>3730</v>
       </c>
@@ -39510,7 +39593,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="298" spans="1:36">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>3733</v>
       </c>
@@ -39620,7 +39703,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="299" spans="1:36">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>3734</v>
       </c>
@@ -39730,7 +39813,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="300" spans="1:36">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>3735</v>
       </c>
@@ -39840,7 +39923,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="301" spans="1:36">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>3736</v>
       </c>
@@ -39950,7 +40033,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="302" spans="1:36">
+    <row r="302" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>3737</v>
       </c>
@@ -40060,7 +40143,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="303" spans="1:36">
+    <row r="303" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>3738</v>
       </c>
@@ -40170,7 +40253,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="304" spans="1:36">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>3740</v>
       </c>
@@ -40280,7 +40363,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="305" spans="1:36">
+    <row r="305" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>3741</v>
       </c>
@@ -40390,7 +40473,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="306" spans="1:36">
+    <row r="306" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>3742</v>
       </c>
@@ -40500,7 +40583,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="307" spans="1:36">
+    <row r="307" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>3745</v>
       </c>
@@ -40610,7 +40693,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="308" spans="1:36">
+    <row r="308" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>3746</v>
       </c>
@@ -40720,7 +40803,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="309" spans="1:36">
+    <row r="309" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>3749</v>
       </c>
@@ -40830,7 +40913,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="310" spans="1:36">
+    <row r="310" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>3751</v>
       </c>
@@ -40940,7 +41023,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="311" spans="1:36">
+    <row r="311" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>3752</v>
       </c>
@@ -41050,7 +41133,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="312" spans="1:36">
+    <row r="312" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>3754</v>
       </c>
@@ -41160,7 +41243,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="313" spans="1:36">
+    <row r="313" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>3757</v>
       </c>
@@ -41270,7 +41353,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="314" spans="1:36">
+    <row r="314" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>3758</v>
       </c>
@@ -41380,7 +41463,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="315" spans="1:36">
+    <row r="315" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>3760</v>
       </c>
@@ -41490,7 +41573,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="316" spans="1:36">
+    <row r="316" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>3762</v>
       </c>
@@ -41600,7 +41683,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="317" spans="1:36">
+    <row r="317" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>3763</v>
       </c>
@@ -41710,7 +41793,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="318" spans="1:36">
+    <row r="318" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>3764</v>
       </c>
@@ -41820,7 +41903,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="319" spans="1:36">
+    <row r="319" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>3766</v>
       </c>
@@ -41930,7 +42013,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="320" spans="1:36">
+    <row r="320" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>3767</v>
       </c>
@@ -42040,7 +42123,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="321" spans="1:36">
+    <row r="321" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>3768</v>
       </c>
@@ -42150,7 +42233,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="322" spans="1:36">
+    <row r="322" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>3774</v>
       </c>
@@ -42260,7 +42343,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="323" spans="1:36">
+    <row r="323" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>3775</v>
       </c>
@@ -42370,7 +42453,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="324" spans="1:36">
+    <row r="324" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>3776</v>
       </c>
@@ -42486,14 +42569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BR18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1996</v>
       </c>
@@ -42705,7 +42788,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -42917,7 +43000,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -43129,7 +43212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -43341,7 +43424,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -43553,7 +43636,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -43765,7 +43848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -43977,7 +44060,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -44189,7 +44272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -44401,7 +44484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -44613,7 +44696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -44825,7 +44908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -45037,7 +45120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -45249,7 +45332,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -45461,7 +45544,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -45673,7 +45756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -45885,7 +45968,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -46097,7 +46180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -46315,14 +46398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1996</v>
       </c>
@@ -46459,7 +46542,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -46596,7 +46679,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -46733,7 +46816,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -46870,7 +46953,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -47007,7 +47090,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -47144,7 +47227,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -47281,7 +47364,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -47418,7 +47501,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -47555,7 +47638,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -47692,7 +47775,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -47829,7 +47912,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -47966,7 +48049,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -48103,7 +48186,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -48240,7 +48323,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -48377,7 +48460,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -48514,7 +48597,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -48657,18 +48740,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2150</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -48738,12 +48826,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2000</v>
+      <c r="B2" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C2" t="s">
         <v>2055</v>
@@ -48812,12 +48900,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2001</v>
+      <c r="B3" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C3" t="s">
         <v>2057</v>
@@ -48886,12 +48974,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>2002</v>
+      <c r="B4" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C4" t="s">
         <v>2058</v>
@@ -48960,12 +49048,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>2003</v>
+      <c r="B5" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C5" t="s">
         <v>2058</v>
@@ -49034,12 +49122,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>2004</v>
+      <c r="B6" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C6" t="s">
         <v>2058</v>
@@ -49108,12 +49196,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>2005</v>
+      <c r="B7" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C7" t="s">
         <v>2055</v>
@@ -49182,12 +49270,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>2006</v>
+      <c r="B8" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C8" t="s">
         <v>2055</v>
@@ -49256,12 +49344,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>2007</v>
+      <c r="B9" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C9" t="s">
         <v>2055</v>
@@ -49330,12 +49418,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>2008</v>
+      <c r="B10" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C10" t="s">
         <v>2055</v>
@@ -49404,11 +49492,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C11" t="s">
@@ -49478,11 +49566,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C12" t="s">
@@ -49552,11 +49640,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C13" t="s">
@@ -49626,12 +49714,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>2000</v>
+      <c r="B14" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C14" t="s">
         <v>2056</v>
@@ -49700,12 +49788,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>2001</v>
+      <c r="B15" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C15" t="s">
         <v>2058</v>
@@ -49774,12 +49862,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>2002</v>
+      <c r="B16" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C16" t="s">
         <v>2058</v>
@@ -49848,12 +49936,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>2003</v>
+      <c r="B17" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C17" t="s">
         <v>2055</v>
@@ -49922,12 +50010,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>2004</v>
+      <c r="B18" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C18" t="s">
         <v>2059</v>
@@ -49996,12 +50084,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>2005</v>
+      <c r="B19" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C19" t="s">
         <v>2058</v>
@@ -50070,12 +50158,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
-        <v>2006</v>
+      <c r="B20" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C20" t="s">
         <v>2058</v>
@@ -50144,12 +50232,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>2007</v>
+      <c r="B21" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C21" t="s">
         <v>2058</v>
@@ -50218,12 +50306,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>2008</v>
+      <c r="B22" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C22" t="s">
         <v>2058</v>
@@ -50292,11 +50380,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C23" t="s">
@@ -50366,11 +50454,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C24" t="s">
@@ -50440,11 +50528,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C25" t="s">
@@ -50514,12 +50602,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
-        <v>2000</v>
+      <c r="B26" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C26" t="s">
         <v>2057</v>
@@ -50588,12 +50676,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
-        <v>2001</v>
+      <c r="B27" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C27" t="s">
         <v>2057</v>
@@ -50662,12 +50750,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
-        <v>2002</v>
+      <c r="B28" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C28" t="s">
         <v>2057</v>
@@ -50736,12 +50824,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
-        <v>2003</v>
+      <c r="B29" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C29" t="s">
         <v>2056</v>
@@ -50810,12 +50898,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
-        <v>2004</v>
+      <c r="B30" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C30" t="s">
         <v>2057</v>
@@ -50884,12 +50972,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
-        <v>2005</v>
+      <c r="B31" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C31" t="s">
         <v>2056</v>
@@ -50958,12 +51046,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" t="s">
-        <v>2006</v>
+      <c r="B32" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C32" t="s">
         <v>2057</v>
@@ -51032,12 +51120,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
-        <v>2007</v>
+      <c r="B33" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C33" t="s">
         <v>2057</v>
@@ -51106,12 +51194,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
-        <v>2008</v>
+      <c r="B34" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C34" t="s">
         <v>2056</v>
@@ -51180,11 +51268,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C35" t="s">
@@ -51254,11 +51342,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C36" t="s">
@@ -51328,11 +51416,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C37" t="s">
@@ -51402,12 +51490,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
-        <v>2000</v>
+      <c r="B38" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C38" t="s">
         <v>2056</v>
@@ -51476,12 +51564,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" t="s">
-        <v>2001</v>
+      <c r="B39" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C39" t="s">
         <v>2059</v>
@@ -51550,12 +51638,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
-        <v>2002</v>
+      <c r="B40" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C40" t="s">
         <v>2058</v>
@@ -51624,12 +51712,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
-        <v>2003</v>
+      <c r="B41" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C41" t="s">
         <v>2056</v>
@@ -51698,12 +51786,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42" t="s">
-        <v>2004</v>
+      <c r="B42" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C42" t="s">
         <v>2056</v>
@@ -51772,12 +51860,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" t="s">
-        <v>2005</v>
+      <c r="B43" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C43" t="s">
         <v>2058</v>
@@ -51846,12 +51934,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4</v>
       </c>
-      <c r="B44" t="s">
-        <v>2006</v>
+      <c r="B44" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C44" t="s">
         <v>2056</v>
@@ -51920,12 +52008,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
-        <v>2007</v>
+      <c r="B45" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C45" t="s">
         <v>2056</v>
@@ -51994,12 +52082,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" t="s">
-        <v>2008</v>
+      <c r="B46" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C46" t="s">
         <v>2057</v>
@@ -52068,11 +52156,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C47" t="s">
@@ -52142,11 +52230,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>4</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C48" t="s">
@@ -52216,11 +52304,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C49" t="s">
@@ -52290,12 +52378,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5</v>
       </c>
-      <c r="B50" t="s">
-        <v>2000</v>
+      <c r="B50" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C50" t="s">
         <v>2057</v>
@@ -52364,12 +52452,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" t="s">
-        <v>2001</v>
+      <c r="B51" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C51" t="s">
         <v>2059</v>
@@ -52438,12 +52526,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="B52" t="s">
-        <v>2002</v>
+      <c r="B52" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C52" t="s">
         <v>2055</v>
@@ -52512,12 +52600,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>5</v>
       </c>
-      <c r="B53" t="s">
-        <v>2003</v>
+      <c r="B53" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C53" t="s">
         <v>2059</v>
@@ -52586,12 +52674,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>5</v>
       </c>
-      <c r="B54" t="s">
-        <v>2004</v>
+      <c r="B54" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C54" t="s">
         <v>2059</v>
@@ -52660,12 +52748,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5</v>
       </c>
-      <c r="B55" t="s">
-        <v>2005</v>
+      <c r="B55" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C55" t="s">
         <v>2059</v>
@@ -52734,12 +52822,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5</v>
       </c>
-      <c r="B56" t="s">
-        <v>2006</v>
+      <c r="B56" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C56" t="s">
         <v>2057</v>
@@ -52808,12 +52896,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5</v>
       </c>
-      <c r="B57" t="s">
-        <v>2007</v>
+      <c r="B57" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C57" t="s">
         <v>2055</v>
@@ -52882,12 +52970,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5</v>
       </c>
-      <c r="B58" t="s">
-        <v>2008</v>
+      <c r="B58" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C58" t="s">
         <v>2059</v>
@@ -52956,11 +53044,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C59" t="s">
@@ -53030,11 +53118,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C60" t="s">
@@ -53104,11 +53192,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C61" t="s">
@@ -53178,12 +53266,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
-        <v>2000</v>
+      <c r="B62" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C62" t="s">
         <v>2056</v>
@@ -53252,12 +53340,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>6</v>
       </c>
-      <c r="B63" t="s">
-        <v>2001</v>
+      <c r="B63" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C63" t="s">
         <v>2057</v>
@@ -53326,12 +53414,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" t="s">
-        <v>2002</v>
+      <c r="B64" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C64" t="s">
         <v>2055</v>
@@ -53400,12 +53488,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>6</v>
       </c>
-      <c r="B65" t="s">
-        <v>2003</v>
+      <c r="B65" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C65" t="s">
         <v>2058</v>
@@ -53474,12 +53562,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>6</v>
       </c>
-      <c r="B66" t="s">
-        <v>2004</v>
+      <c r="B66" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C66" t="s">
         <v>2058</v>
@@ -53548,12 +53636,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6</v>
       </c>
-      <c r="B67" t="s">
-        <v>2005</v>
+      <c r="B67" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C67" t="s">
         <v>2059</v>
@@ -53622,12 +53710,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6</v>
       </c>
-      <c r="B68" t="s">
-        <v>2006</v>
+      <c r="B68" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C68" t="s">
         <v>2055</v>
@@ -53696,12 +53784,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6</v>
       </c>
-      <c r="B69" t="s">
-        <v>2007</v>
+      <c r="B69" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C69" t="s">
         <v>2055</v>
@@ -53770,12 +53858,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>6</v>
       </c>
-      <c r="B70" t="s">
-        <v>2008</v>
+      <c r="B70" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C70" t="s">
         <v>2057</v>
@@ -53844,11 +53932,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>6</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C71" t="s">
@@ -53918,11 +54006,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>6</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C72" t="s">
@@ -53992,11 +54080,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>6</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C73" t="s">
@@ -54066,12 +54154,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7</v>
       </c>
-      <c r="B74" t="s">
-        <v>2000</v>
+      <c r="B74" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C74" t="s">
         <v>2056</v>
@@ -54140,12 +54228,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7</v>
       </c>
-      <c r="B75" t="s">
-        <v>2001</v>
+      <c r="B75" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C75" t="s">
         <v>2058</v>
@@ -54214,12 +54302,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7</v>
       </c>
-      <c r="B76" t="s">
-        <v>2002</v>
+      <c r="B76" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C76" t="s">
         <v>2057</v>
@@ -54288,12 +54376,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7</v>
       </c>
-      <c r="B77" t="s">
-        <v>2003</v>
+      <c r="B77" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C77" t="s">
         <v>2058</v>
@@ -54362,12 +54450,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>7</v>
       </c>
-      <c r="B78" t="s">
-        <v>2004</v>
+      <c r="B78" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C78" t="s">
         <v>2057</v>
@@ -54436,12 +54524,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>7</v>
       </c>
-      <c r="B79" t="s">
-        <v>2005</v>
+      <c r="B79" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C79" t="s">
         <v>2058</v>
@@ -54510,12 +54598,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>7</v>
       </c>
-      <c r="B80" t="s">
-        <v>2006</v>
+      <c r="B80" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C80" t="s">
         <v>2058</v>
@@ -54584,12 +54672,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>7</v>
       </c>
-      <c r="B81" t="s">
-        <v>2007</v>
+      <c r="B81" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C81" t="s">
         <v>2058</v>
@@ -54658,12 +54746,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>7</v>
       </c>
-      <c r="B82" t="s">
-        <v>2008</v>
+      <c r="B82" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C82" t="s">
         <v>2058</v>
@@ -54732,11 +54820,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>7</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C83" t="s">
@@ -54806,11 +54894,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>7</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C84" t="s">
@@ -54880,11 +54968,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>7</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C85" t="s">
@@ -54954,12 +55042,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>8</v>
       </c>
-      <c r="B86" t="s">
-        <v>2000</v>
+      <c r="B86" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C86" t="s">
         <v>2056</v>
@@ -55028,12 +55116,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>8</v>
       </c>
-      <c r="B87" t="s">
-        <v>2001</v>
+      <c r="B87" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C87" t="s">
         <v>2057</v>
@@ -55102,12 +55190,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>8</v>
       </c>
-      <c r="B88" t="s">
-        <v>2002</v>
+      <c r="B88" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C88" t="s">
         <v>2055</v>
@@ -55176,12 +55264,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8</v>
       </c>
-      <c r="B89" t="s">
-        <v>2003</v>
+      <c r="B89" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C89" t="s">
         <v>2055</v>
@@ -55250,12 +55338,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>8</v>
       </c>
-      <c r="B90" t="s">
-        <v>2004</v>
+      <c r="B90" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C90" t="s">
         <v>2058</v>
@@ -55324,12 +55412,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>8</v>
       </c>
-      <c r="B91" t="s">
-        <v>2005</v>
+      <c r="B91" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C91" t="s">
         <v>2058</v>
@@ -55398,12 +55486,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>8</v>
       </c>
-      <c r="B92" t="s">
-        <v>2006</v>
+      <c r="B92" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C92" t="s">
         <v>2055</v>
@@ -55472,12 +55560,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>8</v>
       </c>
-      <c r="B93" t="s">
-        <v>2007</v>
+      <c r="B93" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C93" t="s">
         <v>2057</v>
@@ -55546,12 +55634,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>8</v>
       </c>
-      <c r="B94" t="s">
-        <v>2008</v>
+      <c r="B94" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C94" t="s">
         <v>2058</v>
@@ -55620,11 +55708,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>8</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C95" t="s">
@@ -55694,11 +55782,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>8</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C96" t="s">
@@ -55768,11 +55856,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>8</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C97" t="s">
@@ -55842,12 +55930,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>9</v>
       </c>
-      <c r="B98" t="s">
-        <v>2000</v>
+      <c r="B98" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C98" t="s">
         <v>2055</v>
@@ -55916,12 +56004,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>9</v>
       </c>
-      <c r="B99" t="s">
-        <v>2001</v>
+      <c r="B99" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C99" t="s">
         <v>2055</v>
@@ -55990,12 +56078,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>9</v>
       </c>
-      <c r="B100" t="s">
-        <v>2002</v>
+      <c r="B100" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C100" t="s">
         <v>2055</v>
@@ -56064,12 +56152,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>9</v>
       </c>
-      <c r="B101" t="s">
-        <v>2003</v>
+      <c r="B101" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C101" t="s">
         <v>2057</v>
@@ -56138,12 +56226,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>9</v>
       </c>
-      <c r="B102" t="s">
-        <v>2004</v>
+      <c r="B102" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C102" t="s">
         <v>2057</v>
@@ -56212,12 +56300,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>9</v>
       </c>
-      <c r="B103" t="s">
-        <v>2005</v>
+      <c r="B103" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C103" t="s">
         <v>2056</v>
@@ -56286,12 +56374,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>9</v>
       </c>
-      <c r="B104" t="s">
-        <v>2006</v>
+      <c r="B104" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C104" t="s">
         <v>2055</v>
@@ -56360,12 +56448,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>9</v>
       </c>
-      <c r="B105" t="s">
-        <v>2007</v>
+      <c r="B105" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C105" t="s">
         <v>2055</v>
@@ -56434,12 +56522,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>9</v>
       </c>
-      <c r="B106" t="s">
-        <v>2008</v>
+      <c r="B106" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C106" t="s">
         <v>2056</v>
@@ -56508,11 +56596,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>9</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C107" t="s">
@@ -56582,11 +56670,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>9</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C108" t="s">
@@ -56656,11 +56744,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>9</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C109" t="s">
@@ -56730,12 +56818,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>10</v>
       </c>
-      <c r="B110" t="s">
-        <v>2000</v>
+      <c r="B110" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C110" t="s">
         <v>2057</v>
@@ -56804,12 +56892,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>10</v>
       </c>
-      <c r="B111" t="s">
-        <v>2001</v>
+      <c r="B111" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C111" t="s">
         <v>2056</v>
@@ -56878,12 +56966,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>10</v>
       </c>
-      <c r="B112" t="s">
-        <v>2002</v>
+      <c r="B112" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C112" t="s">
         <v>2056</v>
@@ -56952,12 +57040,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>10</v>
       </c>
-      <c r="B113" t="s">
-        <v>2003</v>
+      <c r="B113" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C113" t="s">
         <v>2056</v>
@@ -57026,12 +57114,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>10</v>
       </c>
-      <c r="B114" t="s">
-        <v>2004</v>
+      <c r="B114" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C114" t="s">
         <v>2056</v>
@@ -57100,12 +57188,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>10</v>
       </c>
-      <c r="B115" t="s">
-        <v>2005</v>
+      <c r="B115" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C115" t="s">
         <v>2056</v>
@@ -57174,12 +57262,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>10</v>
       </c>
-      <c r="B116" t="s">
-        <v>2006</v>
+      <c r="B116" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C116" t="s">
         <v>2056</v>
@@ -57248,12 +57336,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>10</v>
       </c>
-      <c r="B117" t="s">
-        <v>2007</v>
+      <c r="B117" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C117" t="s">
         <v>2056</v>
@@ -57322,12 +57410,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>10</v>
       </c>
-      <c r="B118" t="s">
-        <v>2008</v>
+      <c r="B118" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C118" t="s">
         <v>2056</v>
@@ -57396,11 +57484,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>10</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C119" t="s">
@@ -57470,11 +57558,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>10</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C120" t="s">
@@ -57544,11 +57632,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>10</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C121" t="s">
@@ -57618,12 +57706,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>11</v>
       </c>
-      <c r="B122" t="s">
-        <v>2000</v>
+      <c r="B122" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C122" t="s">
         <v>2057</v>
@@ -57692,12 +57780,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>11</v>
       </c>
-      <c r="B123" t="s">
-        <v>2001</v>
+      <c r="B123" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C123" t="s">
         <v>2055</v>
@@ -57766,12 +57854,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>11</v>
       </c>
-      <c r="B124" t="s">
-        <v>2002</v>
+      <c r="B124" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C124" t="s">
         <v>2057</v>
@@ -57840,12 +57928,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>11</v>
       </c>
-      <c r="B125" t="s">
-        <v>2003</v>
+      <c r="B125" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C125" t="s">
         <v>2056</v>
@@ -57914,12 +58002,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>11</v>
       </c>
-      <c r="B126" t="s">
-        <v>2004</v>
+      <c r="B126" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C126" t="s">
         <v>2059</v>
@@ -57988,12 +58076,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>11</v>
       </c>
-      <c r="B127" t="s">
-        <v>2005</v>
+      <c r="B127" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C127" t="s">
         <v>2058</v>
@@ -58062,12 +58150,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>11</v>
       </c>
-      <c r="B128" t="s">
-        <v>2006</v>
+      <c r="B128" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C128" t="s">
         <v>2057</v>
@@ -58136,12 +58224,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>11</v>
       </c>
-      <c r="B129" t="s">
-        <v>2007</v>
+      <c r="B129" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C129" t="s">
         <v>2055</v>
@@ -58210,12 +58298,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>11</v>
       </c>
-      <c r="B130" t="s">
-        <v>2008</v>
+      <c r="B130" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C130" t="s">
         <v>2055</v>
@@ -58284,11 +58372,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>11</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C131" t="s">
@@ -58358,11 +58446,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>11</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C132" t="s">
@@ -58432,11 +58520,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>11</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C133" t="s">
@@ -58506,12 +58594,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>12</v>
       </c>
-      <c r="B134" t="s">
-        <v>2000</v>
+      <c r="B134" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C134" t="s">
         <v>2058</v>
@@ -58580,12 +58668,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>12</v>
       </c>
-      <c r="B135" t="s">
-        <v>2001</v>
+      <c r="B135" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C135" t="s">
         <v>2055</v>
@@ -58654,12 +58742,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>12</v>
       </c>
-      <c r="B136" t="s">
-        <v>2002</v>
+      <c r="B136" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C136" t="s">
         <v>2058</v>
@@ -58728,12 +58816,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>12</v>
       </c>
-      <c r="B137" t="s">
-        <v>2003</v>
+      <c r="B137" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C137" t="s">
         <v>2058</v>
@@ -58802,12 +58890,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>12</v>
       </c>
-      <c r="B138" t="s">
-        <v>2004</v>
+      <c r="B138" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C138" t="s">
         <v>2057</v>
@@ -58876,12 +58964,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>12</v>
       </c>
-      <c r="B139" t="s">
-        <v>2005</v>
+      <c r="B139" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C139" t="s">
         <v>2058</v>
@@ -58950,12 +59038,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>12</v>
       </c>
-      <c r="B140" t="s">
-        <v>2006</v>
+      <c r="B140" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C140" t="s">
         <v>2055</v>
@@ -59024,12 +59112,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>12</v>
       </c>
-      <c r="B141" t="s">
-        <v>2007</v>
+      <c r="B141" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C141" t="s">
         <v>2055</v>
@@ -59098,12 +59186,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>12</v>
       </c>
-      <c r="B142" t="s">
-        <v>2008</v>
+      <c r="B142" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C142" t="s">
         <v>2057</v>
@@ -59172,11 +59260,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>12</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C143" t="s">
@@ -59246,11 +59334,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>12</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C144" t="s">
@@ -59320,11 +59408,11 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>12</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C145" t="s">
@@ -59394,12 +59482,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>13</v>
       </c>
-      <c r="B146" t="s">
-        <v>2000</v>
+      <c r="B146" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C146" t="s">
         <v>2056</v>
@@ -59468,12 +59556,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>13</v>
       </c>
-      <c r="B147" t="s">
-        <v>2001</v>
+      <c r="B147" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C147" t="s">
         <v>2058</v>
@@ -59542,12 +59630,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>13</v>
       </c>
-      <c r="B148" t="s">
-        <v>2002</v>
+      <c r="B148" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C148" t="s">
         <v>2055</v>
@@ -59616,12 +59704,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>13</v>
       </c>
-      <c r="B149" t="s">
-        <v>2003</v>
+      <c r="B149" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C149" t="s">
         <v>2055</v>
@@ -59690,12 +59778,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>13</v>
       </c>
-      <c r="B150" t="s">
-        <v>2004</v>
+      <c r="B150" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C150" t="s">
         <v>2056</v>
@@ -59764,12 +59852,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>13</v>
       </c>
-      <c r="B151" t="s">
-        <v>2005</v>
+      <c r="B151" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C151" t="s">
         <v>2055</v>
@@ -59838,12 +59926,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>13</v>
       </c>
-      <c r="B152" t="s">
-        <v>2006</v>
+      <c r="B152" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C152" t="s">
         <v>2057</v>
@@ -59912,12 +60000,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>13</v>
       </c>
-      <c r="B153" t="s">
-        <v>2007</v>
+      <c r="B153" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C153" t="s">
         <v>2055</v>
@@ -59986,12 +60074,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>13</v>
       </c>
-      <c r="B154" t="s">
-        <v>2008</v>
+      <c r="B154" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C154" t="s">
         <v>2056</v>
@@ -60060,11 +60148,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>13</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C155" t="s">
@@ -60134,11 +60222,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>13</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C156" t="s">
@@ -60208,11 +60296,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>13</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C157" t="s">
@@ -60282,12 +60370,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>14</v>
       </c>
-      <c r="B158" t="s">
-        <v>2000</v>
+      <c r="B158" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C158" t="s">
         <v>2057</v>
@@ -60356,12 +60444,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>14</v>
       </c>
-      <c r="B159" t="s">
-        <v>2001</v>
+      <c r="B159" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C159" t="s">
         <v>2057</v>
@@ -60430,12 +60518,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>14</v>
       </c>
-      <c r="B160" t="s">
-        <v>2002</v>
+      <c r="B160" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C160" t="s">
         <v>2056</v>
@@ -60504,12 +60592,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>14</v>
       </c>
-      <c r="B161" t="s">
-        <v>2003</v>
+      <c r="B161" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C161" t="s">
         <v>2056</v>
@@ -60578,12 +60666,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>14</v>
       </c>
-      <c r="B162" t="s">
-        <v>2004</v>
+      <c r="B162" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C162" t="s">
         <v>2057</v>
@@ -60652,12 +60740,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>14</v>
       </c>
-      <c r="B163" t="s">
-        <v>2005</v>
+      <c r="B163" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C163" t="s">
         <v>2057</v>
@@ -60726,12 +60814,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>14</v>
       </c>
-      <c r="B164" t="s">
-        <v>2006</v>
+      <c r="B164" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C164" t="s">
         <v>2057</v>
@@ -60800,12 +60888,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>14</v>
       </c>
-      <c r="B165" t="s">
-        <v>2007</v>
+      <c r="B165" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C165" t="s">
         <v>2057</v>
@@ -60874,12 +60962,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>14</v>
       </c>
-      <c r="B166" t="s">
-        <v>2008</v>
+      <c r="B166" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C166" t="s">
         <v>2058</v>
@@ -60948,11 +61036,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>14</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C167" t="s">
@@ -61022,11 +61110,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>14</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C168" t="s">
@@ -61096,11 +61184,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>14</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C169" t="s">
@@ -61170,12 +61258,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>15</v>
       </c>
-      <c r="B170" t="s">
-        <v>2000</v>
+      <c r="B170" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C170" t="s">
         <v>2056</v>
@@ -61244,12 +61332,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>15</v>
       </c>
-      <c r="B171" t="s">
-        <v>2001</v>
+      <c r="B171" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C171" t="s">
         <v>2056</v>
@@ -61318,12 +61406,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>15</v>
       </c>
-      <c r="B172" t="s">
-        <v>2002</v>
+      <c r="B172" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C172" t="s">
         <v>2058</v>
@@ -61392,12 +61480,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>15</v>
       </c>
-      <c r="B173" t="s">
-        <v>2003</v>
+      <c r="B173" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C173" t="s">
         <v>2058</v>
@@ -61466,12 +61554,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="174" spans="1:24">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>15</v>
       </c>
-      <c r="B174" t="s">
-        <v>2004</v>
+      <c r="B174" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C174" t="s">
         <v>2057</v>
@@ -61540,12 +61628,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>15</v>
       </c>
-      <c r="B175" t="s">
-        <v>2005</v>
+      <c r="B175" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C175" t="s">
         <v>2055</v>
@@ -61614,12 +61702,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="176" spans="1:24">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>15</v>
       </c>
-      <c r="B176" t="s">
-        <v>2006</v>
+      <c r="B176" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C176" t="s">
         <v>2057</v>
@@ -61688,12 +61776,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>15</v>
       </c>
-      <c r="B177" t="s">
-        <v>2007</v>
+      <c r="B177" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C177" t="s">
         <v>2058</v>
@@ -61762,12 +61850,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>15</v>
       </c>
-      <c r="B178" t="s">
-        <v>2008</v>
+      <c r="B178" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C178" t="s">
         <v>2058</v>
@@ -61836,11 +61924,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>15</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C179" t="s">
@@ -61910,11 +61998,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>15</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C180" t="s">
@@ -61984,11 +62072,11 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>15</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C181" t="s">
@@ -62058,12 +62146,12 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>16</v>
       </c>
-      <c r="B182" t="s">
-        <v>2000</v>
+      <c r="B182" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C182" t="s">
         <v>2057</v>
@@ -62132,12 +62220,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>16</v>
       </c>
-      <c r="B183" t="s">
-        <v>2001</v>
+      <c r="B183" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C183" t="s">
         <v>2055</v>
@@ -62206,12 +62294,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>16</v>
       </c>
-      <c r="B184" t="s">
-        <v>2002</v>
+      <c r="B184" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C184" t="s">
         <v>2058</v>
@@ -62280,12 +62368,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>16</v>
       </c>
-      <c r="B185" t="s">
-        <v>2003</v>
+      <c r="B185" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C185" t="s">
         <v>2057</v>
@@ -62354,12 +62442,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>16</v>
       </c>
-      <c r="B186" t="s">
-        <v>2004</v>
+      <c r="B186" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C186" t="s">
         <v>2055</v>
@@ -62428,12 +62516,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>16</v>
       </c>
-      <c r="B187" t="s">
-        <v>2005</v>
+      <c r="B187" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C187" t="s">
         <v>2058</v>
@@ -62502,12 +62590,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>16</v>
       </c>
-      <c r="B188" t="s">
-        <v>2006</v>
+      <c r="B188" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C188" t="s">
         <v>2057</v>
@@ -62576,12 +62664,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>16</v>
       </c>
-      <c r="B189" t="s">
-        <v>2007</v>
+      <c r="B189" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C189" t="s">
         <v>2055</v>
@@ -62650,12 +62738,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>16</v>
       </c>
-      <c r="B190" t="s">
-        <v>2008</v>
+      <c r="B190" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C190" t="s">
         <v>2058</v>
@@ -62724,11 +62812,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>16</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C191" t="s">
@@ -62798,11 +62886,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>16</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C192" t="s">
@@ -62872,11 +62960,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>16</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C193" t="s">
@@ -62946,12 +63034,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="194" spans="1:24">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>17</v>
       </c>
-      <c r="B194" t="s">
-        <v>2000</v>
+      <c r="B194" s="4" t="s">
+        <v>2152</v>
       </c>
       <c r="C194" t="s">
         <v>2056</v>
@@ -63020,12 +63108,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>17</v>
       </c>
-      <c r="B195" t="s">
-        <v>2001</v>
+      <c r="B195" s="4" t="s">
+        <v>2153</v>
       </c>
       <c r="C195" t="s">
         <v>2055</v>
@@ -63094,12 +63182,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="196" spans="1:24">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>17</v>
       </c>
-      <c r="B196" t="s">
-        <v>2002</v>
+      <c r="B196" s="4" t="s">
+        <v>2154</v>
       </c>
       <c r="C196" t="s">
         <v>2057</v>
@@ -63168,12 +63256,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="197" spans="1:24">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>17</v>
       </c>
-      <c r="B197" t="s">
-        <v>2003</v>
+      <c r="B197" s="4" t="s">
+        <v>2155</v>
       </c>
       <c r="C197" t="s">
         <v>2057</v>
@@ -63242,12 +63330,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="198" spans="1:24">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>17</v>
       </c>
-      <c r="B198" t="s">
-        <v>2004</v>
+      <c r="B198" s="4" t="s">
+        <v>2156</v>
       </c>
       <c r="C198" t="s">
         <v>2055</v>
@@ -63316,12 +63404,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="199" spans="1:24">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>17</v>
       </c>
-      <c r="B199" t="s">
-        <v>2005</v>
+      <c r="B199" s="4" t="s">
+        <v>2157</v>
       </c>
       <c r="C199" t="s">
         <v>2055</v>
@@ -63390,12 +63478,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="200" spans="1:24">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>17</v>
       </c>
-      <c r="B200" t="s">
-        <v>2006</v>
+      <c r="B200" s="4" t="s">
+        <v>2158</v>
       </c>
       <c r="C200" t="s">
         <v>2055</v>
@@ -63464,12 +63552,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="201" spans="1:24">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>17</v>
       </c>
-      <c r="B201" t="s">
-        <v>2007</v>
+      <c r="B201" s="4" t="s">
+        <v>2159</v>
       </c>
       <c r="C201" t="s">
         <v>2055</v>
@@ -63538,12 +63626,12 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="202" spans="1:24">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>17</v>
       </c>
-      <c r="B202" t="s">
-        <v>2008</v>
+      <c r="B202" s="4" t="s">
+        <v>2160</v>
       </c>
       <c r="C202" t="s">
         <v>2055</v>
@@ -63612,11 +63700,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="203" spans="1:24">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>17</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="4" t="s">
         <v>2009</v>
       </c>
       <c r="C203" t="s">
@@ -63686,11 +63774,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="204" spans="1:24">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>17</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="C204" t="s">
@@ -63760,11 +63848,11 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="205" spans="1:24">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>17</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="4" t="s">
         <v>2011</v>
       </c>
       <c r="C205" t="s">
@@ -63836,18 +63924,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1996</v>
       </c>
@@ -63921,7 +64010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -63995,7 +64084,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -64069,7 +64158,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -64143,7 +64232,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -64217,7 +64306,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -64291,7 +64380,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -64365,7 +64454,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -64439,7 +64528,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -64513,7 +64602,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -64587,7 +64676,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -64661,7 +64750,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -64735,7 +64824,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -64809,7 +64898,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -64883,7 +64972,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -64957,7 +65046,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -65031,7 +65120,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -65105,7 +65194,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3</v>
       </c>
@@ -65179,7 +65268,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3</v>
       </c>
@@ -65253,7 +65342,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -65327,7 +65416,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -65401,7 +65490,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -65475,7 +65564,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -65549,7 +65638,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -65623,7 +65712,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -65697,7 +65786,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -65771,7 +65860,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -65845,7 +65934,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -65919,7 +66008,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -65993,7 +66082,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4</v>
       </c>
@@ -66067,7 +66156,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
@@ -66141,7 +66230,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -66215,7 +66304,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -66289,7 +66378,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -66363,7 +66452,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5</v>
       </c>
@@ -66437,7 +66526,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5</v>
       </c>
@@ -66511,7 +66600,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5</v>
       </c>
@@ -66585,7 +66674,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5</v>
       </c>
@@ -66659,7 +66748,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5</v>
       </c>
@@ -66733,7 +66822,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5</v>
       </c>
@@ -66807,7 +66896,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5</v>
       </c>
@@ -66881,7 +66970,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6</v>
       </c>
@@ -66955,7 +67044,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6</v>
       </c>
@@ -67029,7 +67118,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -67103,7 +67192,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6</v>
       </c>
@@ -67177,7 +67266,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6</v>
       </c>
@@ -67251,7 +67340,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
@@ -67325,7 +67414,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>6</v>
       </c>
@@ -67399,7 +67488,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6</v>
       </c>
@@ -67473,7 +67562,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>7</v>
       </c>
@@ -67547,7 +67636,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>7</v>
       </c>
@@ -67621,7 +67710,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>7</v>
       </c>
@@ -67695,7 +67784,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>7</v>
       </c>
@@ -67769,7 +67858,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>7</v>
       </c>
@@ -67843,7 +67932,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>7</v>
       </c>
@@ -67917,7 +68006,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>7</v>
       </c>
@@ -67991,7 +68080,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>7</v>
       </c>
@@ -68065,7 +68154,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>8</v>
       </c>
@@ -68139,7 +68228,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>8</v>
       </c>
@@ -68213,7 +68302,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>8</v>
       </c>
@@ -68287,7 +68376,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>8</v>
       </c>
@@ -68361,7 +68450,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>8</v>
       </c>
@@ -68435,7 +68524,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>8</v>
       </c>
@@ -68509,7 +68598,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>8</v>
       </c>
@@ -68583,7 +68672,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>8</v>
       </c>
@@ -68657,7 +68746,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>9</v>
       </c>
@@ -68731,7 +68820,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>9</v>
       </c>
@@ -68805,7 +68894,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>9</v>
       </c>
@@ -68879,7 +68968,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>9</v>
       </c>
@@ -68953,7 +69042,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>9</v>
       </c>
@@ -69027,7 +69116,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>9</v>
       </c>
@@ -69101,7 +69190,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>9</v>
       </c>
@@ -69175,7 +69264,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>9</v>
       </c>
@@ -69249,7 +69338,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>10</v>
       </c>
@@ -69323,7 +69412,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>10</v>
       </c>
@@ -69397,7 +69486,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>10</v>
       </c>
@@ -69471,7 +69560,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>10</v>
       </c>
@@ -69545,7 +69634,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>10</v>
       </c>
@@ -69619,7 +69708,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>10</v>
       </c>
@@ -69693,7 +69782,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>10</v>
       </c>
@@ -69767,7 +69856,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>10</v>
       </c>
@@ -69841,7 +69930,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>11</v>
       </c>
@@ -69915,7 +70004,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>11</v>
       </c>
@@ -69989,7 +70078,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>11</v>
       </c>
@@ -70063,7 +70152,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>11</v>
       </c>
@@ -70137,7 +70226,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>11</v>
       </c>
@@ -70211,7 +70300,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>11</v>
       </c>
@@ -70285,7 +70374,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>11</v>
       </c>
@@ -70359,7 +70448,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>11</v>
       </c>
@@ -70433,7 +70522,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>12</v>
       </c>
@@ -70507,7 +70596,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>12</v>
       </c>
@@ -70581,7 +70670,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>12</v>
       </c>
@@ -70655,7 +70744,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>12</v>
       </c>
@@ -70729,7 +70818,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>12</v>
       </c>
@@ -70803,7 +70892,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>12</v>
       </c>
@@ -70877,7 +70966,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>12</v>
       </c>
@@ -70951,7 +71040,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>12</v>
       </c>
@@ -71025,7 +71114,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>13</v>
       </c>
@@ -71099,7 +71188,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>13</v>
       </c>
@@ -71173,7 +71262,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>13</v>
       </c>
@@ -71247,7 +71336,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>13</v>
       </c>
@@ -71321,7 +71410,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>13</v>
       </c>
@@ -71395,7 +71484,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>13</v>
       </c>
@@ -71469,7 +71558,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>13</v>
       </c>
@@ -71543,7 +71632,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>13</v>
       </c>
@@ -71617,7 +71706,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>14</v>
       </c>
@@ -71691,7 +71780,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>14</v>
       </c>
@@ -71765,7 +71854,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>14</v>
       </c>
@@ -71839,7 +71928,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>14</v>
       </c>
@@ -71913,7 +72002,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>14</v>
       </c>
@@ -71987,7 +72076,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>14</v>
       </c>
@@ -72061,7 +72150,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>14</v>
       </c>
@@ -72135,7 +72224,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>14</v>
       </c>
@@ -72209,7 +72298,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>15</v>
       </c>
@@ -72283,7 +72372,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>15</v>
       </c>
@@ -72357,7 +72446,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>15</v>
       </c>
@@ -72431,7 +72520,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>15</v>
       </c>
@@ -72505,7 +72594,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>15</v>
       </c>
@@ -72579,7 +72668,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>15</v>
       </c>
@@ -72653,7 +72742,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>15</v>
       </c>
@@ -72727,7 +72816,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>15</v>
       </c>
@@ -72801,7 +72890,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>16</v>
       </c>
@@ -72875,7 +72964,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>16</v>
       </c>
@@ -72949,7 +73038,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>16</v>
       </c>
@@ -73023,7 +73112,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>16</v>
       </c>
@@ -73097,7 +73186,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>16</v>
       </c>
@@ -73171,7 +73260,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>16</v>
       </c>
@@ -73245,7 +73334,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>16</v>
       </c>
@@ -73319,7 +73408,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>16</v>
       </c>
@@ -73393,7 +73482,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>17</v>
       </c>
@@ -73467,7 +73556,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>17</v>
       </c>
@@ -73541,7 +73630,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>17</v>
       </c>
@@ -73615,7 +73704,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>17</v>
       </c>
@@ -73689,7 +73778,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>17</v>
       </c>
@@ -73763,7 +73852,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>17</v>
       </c>
@@ -73837,7 +73926,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>17</v>
       </c>
@@ -73911,7 +74000,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>17</v>
       </c>
@@ -73991,14 +74080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1996</v>
       </c>
@@ -74072,7 +74161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -74146,7 +74235,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -74220,7 +74309,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -74294,7 +74383,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -74368,7 +74457,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -74442,7 +74531,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -74516,7 +74605,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -74590,7 +74679,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -74664,7 +74753,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -74738,7 +74827,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -74812,7 +74901,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -74886,7 +74975,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -74960,7 +75049,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -75034,7 +75123,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -75108,7 +75197,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -75182,7 +75271,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -75256,7 +75345,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -75330,7 +75419,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -75404,7 +75493,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -75478,7 +75567,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -75552,7 +75641,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -75626,7 +75715,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -75700,7 +75789,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -75774,7 +75863,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -75848,7 +75937,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
@@ -75922,7 +76011,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -75996,7 +76085,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -76070,7 +76159,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
@@ -76144,7 +76233,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -76218,7 +76307,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -76292,7 +76381,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -76366,7 +76455,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -76440,7 +76529,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -76514,7 +76603,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
@@ -76588,7 +76677,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
@@ -76662,7 +76751,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -76736,7 +76825,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4</v>
       </c>
@@ -76810,7 +76899,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
@@ -76884,7 +76973,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
@@ -76958,7 +77047,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -77032,7 +77121,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -77106,7 +77195,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -77180,7 +77269,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5</v>
       </c>
@@ -77254,7 +77343,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5</v>
       </c>
@@ -77328,7 +77417,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -77402,7 +77491,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5</v>
       </c>
@@ -77476,7 +77565,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5</v>
       </c>
@@ -77550,7 +77639,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5</v>
       </c>
@@ -77624,7 +77713,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5</v>
       </c>
@@ -77698,7 +77787,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
@@ -77772,7 +77861,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6</v>
       </c>
@@ -77846,7 +77935,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6</v>
       </c>
@@ -77920,7 +78009,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6</v>
       </c>
@@ -77994,7 +78083,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6</v>
       </c>
@@ -78068,7 +78157,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6</v>
       </c>
@@ -78142,7 +78231,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6</v>
       </c>
@@ -78216,7 +78305,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6</v>
       </c>
@@ -78290,7 +78379,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6</v>
       </c>
@@ -78364,7 +78453,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6</v>
       </c>
@@ -78438,7 +78527,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6</v>
       </c>
@@ -78512,7 +78601,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7</v>
       </c>
@@ -78586,7 +78675,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>7</v>
       </c>
@@ -78660,7 +78749,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>7</v>
       </c>
@@ -78734,7 +78823,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>7</v>
       </c>
@@ -78808,7 +78897,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>7</v>
       </c>
@@ -78882,7 +78971,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>7</v>
       </c>
@@ -78956,7 +79045,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>7</v>
       </c>
@@ -79030,7 +79119,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>7</v>
       </c>
@@ -79104,7 +79193,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>7</v>
       </c>
@@ -79178,7 +79267,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7</v>
       </c>
@@ -79252,7 +79341,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>8</v>
       </c>
@@ -79326,7 +79415,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>8</v>
       </c>
@@ -79400,7 +79489,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>8</v>
       </c>
@@ -79474,7 +79563,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>8</v>
       </c>
@@ -79548,7 +79637,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>8</v>
       </c>
@@ -79622,7 +79711,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>8</v>
       </c>
@@ -79696,7 +79785,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>8</v>
       </c>
@@ -79770,7 +79859,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>8</v>
       </c>
@@ -79844,7 +79933,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>8</v>
       </c>
@@ -79918,7 +80007,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>8</v>
       </c>
@@ -79992,7 +80081,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>9</v>
       </c>
@@ -80066,7 +80155,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>9</v>
       </c>
@@ -80140,7 +80229,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>9</v>
       </c>
@@ -80214,7 +80303,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>9</v>
       </c>
@@ -80288,7 +80377,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>9</v>
       </c>
@@ -80362,7 +80451,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>9</v>
       </c>
@@ -80436,7 +80525,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>9</v>
       </c>
@@ -80510,7 +80599,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>9</v>
       </c>
@@ -80584,7 +80673,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
@@ -80658,7 +80747,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9</v>
       </c>
@@ -80732,7 +80821,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>10</v>
       </c>
@@ -80806,7 +80895,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>10</v>
       </c>
@@ -80880,7 +80969,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>10</v>
       </c>
@@ -80954,7 +81043,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>10</v>
       </c>
@@ -81028,7 +81117,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>10</v>
       </c>
@@ -81102,7 +81191,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>10</v>
       </c>
@@ -81176,7 +81265,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>10</v>
       </c>
@@ -81250,7 +81339,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>10</v>
       </c>
@@ -81324,7 +81413,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>10</v>
       </c>
@@ -81398,7 +81487,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>10</v>
       </c>
@@ -81472,7 +81561,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>11</v>
       </c>
@@ -81546,7 +81635,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>11</v>
       </c>
@@ -81620,7 +81709,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>11</v>
       </c>
@@ -81694,7 +81783,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>11</v>
       </c>
@@ -81768,7 +81857,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>11</v>
       </c>
@@ -81842,7 +81931,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>11</v>
       </c>
@@ -81916,7 +82005,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>11</v>
       </c>
@@ -81990,7 +82079,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>11</v>
       </c>
@@ -82064,7 +82153,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>11</v>
       </c>
@@ -82138,7 +82227,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>11</v>
       </c>
@@ -82212,7 +82301,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>12</v>
       </c>
@@ -82286,7 +82375,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>12</v>
       </c>
@@ -82360,7 +82449,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>12</v>
       </c>
@@ -82434,7 +82523,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>12</v>
       </c>
@@ -82508,7 +82597,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>12</v>
       </c>
@@ -82582,7 +82671,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>12</v>
       </c>
@@ -82656,7 +82745,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>12</v>
       </c>
@@ -82730,7 +82819,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>12</v>
       </c>
@@ -82804,7 +82893,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>12</v>
       </c>
@@ -82878,7 +82967,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>12</v>
       </c>
@@ -82952,7 +83041,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>13</v>
       </c>
@@ -83026,7 +83115,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>13</v>
       </c>
@@ -83100,7 +83189,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>13</v>
       </c>
@@ -83174,7 +83263,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>13</v>
       </c>
@@ -83248,7 +83337,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>13</v>
       </c>
@@ -83322,7 +83411,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>13</v>
       </c>
@@ -83396,7 +83485,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>13</v>
       </c>
@@ -83470,7 +83559,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>13</v>
       </c>
@@ -83544,7 +83633,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>13</v>
       </c>
@@ -83618,7 +83707,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>13</v>
       </c>
@@ -83692,7 +83781,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>14</v>
       </c>
@@ -83766,7 +83855,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>14</v>
       </c>
@@ -83840,7 +83929,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>14</v>
       </c>
@@ -83914,7 +84003,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>14</v>
       </c>
@@ -83988,7 +84077,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>14</v>
       </c>
@@ -84062,7 +84151,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>14</v>
       </c>
@@ -84136,7 +84225,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>14</v>
       </c>
@@ -84210,7 +84299,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>14</v>
       </c>
@@ -84284,7 +84373,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>14</v>
       </c>
@@ -84358,7 +84447,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>14</v>
       </c>
@@ -84432,7 +84521,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>15</v>
       </c>
@@ -84506,7 +84595,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>15</v>
       </c>
@@ -84580,7 +84669,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>15</v>
       </c>
@@ -84654,7 +84743,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>15</v>
       </c>
@@ -84728,7 +84817,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>15</v>
       </c>
@@ -84802,7 +84891,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>15</v>
       </c>
@@ -84876,7 +84965,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>15</v>
       </c>
@@ -84950,7 +85039,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>15</v>
       </c>
@@ -85024,7 +85113,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>15</v>
       </c>
@@ -85098,7 +85187,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>15</v>
       </c>
@@ -85172,7 +85261,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>16</v>
       </c>
@@ -85246,7 +85335,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>16</v>
       </c>
@@ -85320,7 +85409,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>16</v>
       </c>
@@ -85394,7 +85483,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>16</v>
       </c>
@@ -85468,7 +85557,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>16</v>
       </c>
@@ -85542,7 +85631,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>16</v>
       </c>
@@ -85616,7 +85705,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>16</v>
       </c>
@@ -85690,7 +85779,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>16</v>
       </c>
@@ -85764,7 +85853,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>16</v>
       </c>
@@ -85838,7 +85927,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>16</v>
       </c>
@@ -85912,7 +86001,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>17</v>
       </c>
@@ -85986,7 +86075,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>17</v>
       </c>
@@ -86060,7 +86149,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>17</v>
       </c>
@@ -86134,7 +86223,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>17</v>
       </c>
@@ -86208,7 +86297,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>17</v>
       </c>
@@ -86282,7 +86371,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>17</v>
       </c>
@@ -86356,7 +86445,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>17</v>
       </c>
@@ -86430,7 +86519,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>17</v>
       </c>
@@ -86504,7 +86593,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>17</v>
       </c>
@@ -86578,7 +86667,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>17</v>
       </c>
